--- a/Added Sugars Evidence Map Data.xlsx
+++ b/Added Sugars Evidence Map Data.xlsx
@@ -5,12 +5,13 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://traversesciencecom.sharepoint.com/sites/internal/Shared Documents/Projects/2021-14 Added sugar review/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Added-Sugars-Evidence-Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="818" documentId="13_ncr:1_{A0F43CAE-052D-4874-B32F-D1A3621A2B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACB87680-A823-4ADC-A03E-83614DFAFE4F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F243025-C073-4E30-80F9-61A56B8773F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{EB61F178-6B34-5548-B719-3DBBB5FA1ADE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" activeTab="3" xr2:uid="{EB61F178-6B34-5548-B719-3DBBB5FA1ADE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{234F88DB-8D9C-43C5-A398-728AD7947860}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Data" sheetId="22" r:id="rId1"/>
@@ -42,6 +43,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7ECA20C5-6E53-4891-B2B5-C6F8C1A1822A}</author>
+  </authors>
+  <commentList>
+    <comment ref="AP191" authorId="0" shapeId="0" xr:uid="{7ECA20C5-6E53-4891-B2B5-C6F8C1A1822A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not specified, even though they note this is a secondary analysis.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12280" uniqueCount="2647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12778" uniqueCount="2795">
   <si>
     <t>Index</t>
   </si>
@@ -8092,6 +8111,450 @@
   <si>
     <t>TRUE if the title or abstract contains a partial string match to "added sugar" AND ("sugar sweetened beverage" or "ssb"). The partial match will identify plurals.</t>
   </si>
+  <si>
+    <t>Parent Study Name</t>
+  </si>
+  <si>
+    <t>PMID: 20517698</t>
+  </si>
+  <si>
+    <t>DRINK study</t>
+  </si>
+  <si>
+    <t>Southern California Mother's Milk Study</t>
+  </si>
+  <si>
+    <t>NHANES</t>
+  </si>
+  <si>
+    <t>PURE study</t>
+  </si>
+  <si>
+    <t>Coronary Artery Risk Development in Young Adults Study (CARDIA)</t>
+  </si>
+  <si>
+    <t>Blue Mountains Eye Study (BMES)</t>
+  </si>
+  <si>
+    <t>National Food Consumption Survey (NFCS)</t>
+  </si>
+  <si>
+    <t>AMERICO study</t>
+  </si>
+  <si>
+    <t>Dietary and Nutritional Survey of British Adults (DNSBA)</t>
+  </si>
+  <si>
+    <t>Brazilian National Dietary Survey</t>
+  </si>
+  <si>
+    <t>Malmö Diet and Cancer Study (MDCS); Northern Swedish Health and Disease Study (NSHDS)</t>
+  </si>
+  <si>
+    <t>EPIC study</t>
+  </si>
+  <si>
+    <t>Malmö Diet and Cancer Study (MDCS)</t>
+  </si>
+  <si>
+    <t>Malmö Diet and Cancer-Cardiovascular Cohort (MDC-CC)</t>
+  </si>
+  <si>
+    <t>Korean Genome and Epidemiologic Study (KoGES)</t>
+  </si>
+  <si>
+    <t>Copenhagen School Child Intervention Study (CoSCIS)</t>
+  </si>
+  <si>
+    <t>Australian National Nutrition and Physical Activity Survey (NNPAS)</t>
+  </si>
+  <si>
+    <t>Growing Up Today Study (GUTS) II cohort</t>
+  </si>
+  <si>
+    <t>Reasons for Geographic and Racial Differences in Stroke (REGARDS) study</t>
+  </si>
+  <si>
+    <t>Nurse's Health Study (NHS);Nurse's Health Study II (NHS II);Health Professionals Follow-up Study (HPFS)</t>
+  </si>
+  <si>
+    <t>QUébec Adipose and Lifestyle InvesTigation in Youth (QUALITY) study</t>
+  </si>
+  <si>
+    <t>Stockholm Weight Development Study (SWEDES)</t>
+  </si>
+  <si>
+    <t>Korean Child–Adolescent Cohort Study (KoCAS)</t>
+  </si>
+  <si>
+    <t>Australian National Children's Nutrition and Physical Activity Survey</t>
+  </si>
+  <si>
+    <t>Seguimiento Universidad de Navarra Cohort Study (SUN)</t>
+  </si>
+  <si>
+    <t>Framingham Offspring Study (FOS);Framingham Third Generation Cohort (GEN3)</t>
+  </si>
+  <si>
+    <t>SWAN study, Study of Women's Health Across the Nation</t>
+  </si>
+  <si>
+    <t>Framingham Children's Study (FCS)</t>
+  </si>
+  <si>
+    <t>Longitudinal Study of Indigenous Children (LSIC) of Australia</t>
+  </si>
+  <si>
+    <t>SEARCH for Diabetes in Youth Study (SEARCH);SEARCH Nutritional Ancillary Study</t>
+  </si>
+  <si>
+    <t>Boston Puerto Rican Health Study (BPRHS)</t>
+  </si>
+  <si>
+    <t>Mexican Teachers' Cohort</t>
+  </si>
+  <si>
+    <t>Iowa Flouride Study (IFS) and Iowa Bone Development Study (IBDS)</t>
+  </si>
+  <si>
+    <t>Atherosclerosis Risk in Communities (ARIC) Study</t>
+  </si>
+  <si>
+    <t>Malmö Offspring Study (MOS)</t>
+  </si>
+  <si>
+    <t>Minnesota Heart Survey</t>
+  </si>
+  <si>
+    <t>EPIC study - E3N subcohort (France component)</t>
+  </si>
+  <si>
+    <t>NHLBI Growth and Health Study (NGHS)</t>
+  </si>
+  <si>
+    <t>Avon Longitudinal Study of Parents and Children (ALSPAC)</t>
+  </si>
+  <si>
+    <t>Tehran Lipid and Glucose Study (TLGS)</t>
+  </si>
+  <si>
+    <t>Multilevel Risk Profiles for Adolescent Metabolic Syndrome (mRP-aMS)</t>
+  </si>
+  <si>
+    <t>Finnish Mobile Clinic Health Examination Survey</t>
+  </si>
+  <si>
+    <t>BrainChild Study</t>
+  </si>
+  <si>
+    <t>Scottish Heart Health Study (SHHS)</t>
+  </si>
+  <si>
+    <t>Prevention of Diabetes in Kids (PREDIKID) study</t>
+  </si>
+  <si>
+    <t>Mashhad stroke and heart atherosclerotic disorders (MASHAD)</t>
+  </si>
+  <si>
+    <t>EPIC-Norfolk Study</t>
+  </si>
+  <si>
+    <t>Cooper Center Longitudinal Study</t>
+  </si>
+  <si>
+    <t>Danish Diet, Cancer, and Health Study</t>
+  </si>
+  <si>
+    <t>Danish National Birth Cohort</t>
+  </si>
+  <si>
+    <t>Mr and Ms OS of Hong Kong Cohort</t>
+  </si>
+  <si>
+    <t>MOVE Project</t>
+  </si>
+  <si>
+    <t>Dortmund Nutritional and Anthropometric Longitudinally Designed (DONALD) Study</t>
+  </si>
+  <si>
+    <t>Early Life Exposure in Mexico to Environmental Toxicants (ELEMENT) project</t>
+  </si>
+  <si>
+    <t>Beverage Fortified with Micronutrients (BeForMi) study</t>
+  </si>
+  <si>
+    <t>Beverages and Student Health (BASH) Study</t>
+  </si>
+  <si>
+    <t>REFORM study</t>
+  </si>
+  <si>
+    <t>EPITeen</t>
+  </si>
+  <si>
+    <t>Growing up in Scotland (GUS)</t>
+  </si>
+  <si>
+    <t>Young Finns Study</t>
+  </si>
+  <si>
+    <t>HELENA-CSS (Healthy Lifestyle in Europe by Nutrition in Adolescence Cross-Sectional Study)</t>
+  </si>
+  <si>
+    <t>Korea NHANES (KNHANES)</t>
+  </si>
+  <si>
+    <t>PREDIMED Trial</t>
+  </si>
+  <si>
+    <t>Finnish Health in Teens cohort</t>
+  </si>
+  <si>
+    <t>Takayama Study</t>
+  </si>
+  <si>
+    <t>Malmo Diet and Cancer-Cardiovascular Cohort (MD-CCC)</t>
+  </si>
+  <si>
+    <t>Double-blind Randomized INtervention study in Kids (DRINK)</t>
+  </si>
+  <si>
+    <t>TXT2BFiT program</t>
+  </si>
+  <si>
+    <t>Be Active Eat Well (BAEW); It's Your Move! (IYM)</t>
+  </si>
+  <si>
+    <t>Sydney Childhood Eye Study</t>
+  </si>
+  <si>
+    <t>Childhood Obesity Project (CHOP)</t>
+  </si>
+  <si>
+    <t>European Youth Heart Study (EYHS)</t>
+  </si>
+  <si>
+    <t>Treatment of Obese Pregnant Women (TOP) Study</t>
+  </si>
+  <si>
+    <t>European Youth Heart Study (EYHS) I;European Youth Heart Study (EYHS) II</t>
+  </si>
+  <si>
+    <t>Fenland Study</t>
+  </si>
+  <si>
+    <t>MONICA study;Diet, Cancer, and Health (DCH);Inter99 study</t>
+  </si>
+  <si>
+    <t>NHANES I; NHANES III</t>
+  </si>
+  <si>
+    <t>Amsterdam Growth and Health Longitudinal Study (AGAHLS)</t>
+  </si>
+  <si>
+    <t>Project Viva</t>
+  </si>
+  <si>
+    <t>Malmo Diet and Cancer Study (MDC)</t>
+  </si>
+  <si>
+    <t>Childhood Asthma Prevention Study (CAPS)</t>
+  </si>
+  <si>
+    <t>Identifying Determinants of Eating and Activity (IDEA);Etiology of Childhood Obesity (ECHO)</t>
+  </si>
+  <si>
+    <t>Nurses’ Health Study (NHS);Health Professionals Follow-up Study (HPFS)</t>
+  </si>
+  <si>
+    <t>UK National Diet and Nutrition Survey (NDNS)</t>
+  </si>
+  <si>
+    <t>Dutch Obesity Intervention in Teenagers-study (DOiT)</t>
+  </si>
+  <si>
+    <t>Vitamins and Lifestyle (VITAL) study</t>
+  </si>
+  <si>
+    <t>Detroit Dental Health Project</t>
+  </si>
+  <si>
+    <t>Missouri Pediatric Nutrition Surveillance System (PedNSS);Missouri Demonstration Project</t>
+  </si>
+  <si>
+    <t>Oman National Nutrition Survey (ONNS)</t>
+  </si>
+  <si>
+    <t>EPIC-Norfolk study</t>
+  </si>
+  <si>
+    <t>Western Australian Pregnancy Cohort (Raine) Study</t>
+  </si>
+  <si>
+    <t>Nurses' Health Study II (NHS II)</t>
+  </si>
+  <si>
+    <t>Early Childhood Longitudinal Survey - Birth Cohort (ECLS-B)</t>
+  </si>
+  <si>
+    <t>PREMIER trial</t>
+  </si>
+  <si>
+    <t>Planet Health Intervention study</t>
+  </si>
+  <si>
+    <t>Longitudinal Study of Australian Children (LSAC)</t>
+  </si>
+  <si>
+    <t>Healthy Start Study</t>
+  </si>
+  <si>
+    <t>Black Women's Health Study (BWHS)</t>
+  </si>
+  <si>
+    <t>TOSCA.IT study</t>
+  </si>
+  <si>
+    <t>WOMAN (Women on the Move through Activity and Nutrition Study)</t>
+  </si>
+  <si>
+    <t>OPUS (Optimal wellbeing, development and health for Danish children through a healthy New Nordic Diet) School Meal Study</t>
+  </si>
+  <si>
+    <t>Nurses' Health Study (NHS) and Health Professionals' Follow-Up Study (HPFS)</t>
+  </si>
+  <si>
+    <t>Singapore Chinese Health Study</t>
+  </si>
+  <si>
+    <t>Center for Alaska Native Health Research Neqem Nallunailkutaa (‘‘Foods' Marker’’) study</t>
+  </si>
+  <si>
+    <t>European Youth Heart Study (Danish part only)</t>
+  </si>
+  <si>
+    <t>Harvard Pooling Project (HPP) of Diet and Coronary Disease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framingham Offspring Study (FOS) </t>
+  </si>
+  <si>
+    <t>Growing Up Today Study (GUTS)</t>
+  </si>
+  <si>
+    <t>Generation R Study</t>
+  </si>
+  <si>
+    <t>NIH-AARP Diet and Health Study</t>
+  </si>
+  <si>
+    <t>Health Professionals Follow-up Study (HPFS)</t>
+  </si>
+  <si>
+    <t>Framingham Third Generation Cohort (GEN3)</t>
+  </si>
+  <si>
+    <t>California Teachers Study (CTS)</t>
+  </si>
+  <si>
+    <t>Daily D Health Study</t>
+  </si>
+  <si>
+    <t>Nurses' Health Study (NHS);Health Professionals' Follow-Up Study (HPFS);Women's Genome Health Study (WGHS)</t>
+  </si>
+  <si>
+    <t>Young Lives study in Peru</t>
+  </si>
+  <si>
+    <t>Norwegian Childhood Diabetes and Quality (NCDQ) project</t>
+  </si>
+  <si>
+    <t>SOLAR Diabetes Project</t>
+  </si>
+  <si>
+    <t>The Cuenca Study</t>
+  </si>
+  <si>
+    <t>Cohort of Swedish Men (COSM)</t>
+  </si>
+  <si>
+    <t>Diet Quality Score Assessed?</t>
+  </si>
+  <si>
+    <t>HEI-1995</t>
+  </si>
+  <si>
+    <t>HEI-2015</t>
+  </si>
+  <si>
+    <t>HEI-2010</t>
+  </si>
+  <si>
+    <t>DASH score</t>
+  </si>
+  <si>
+    <t>HEI-C 2009</t>
+  </si>
+  <si>
+    <t>Mediterranean Diet scale</t>
+  </si>
+  <si>
+    <t>DGAI-2015</t>
+  </si>
+  <si>
+    <t>HEI-2005</t>
+  </si>
+  <si>
+    <t>MARS</t>
+  </si>
+  <si>
+    <t>Prudent dietary pattern;conservative dietary pattern</t>
+  </si>
+  <si>
+    <t>UKDDQ score</t>
+  </si>
+  <si>
+    <t>DASH score;Mediterranean diet score</t>
+  </si>
+  <si>
+    <t>Mediterranean Diet Score</t>
+  </si>
+  <si>
+    <t>AHEI</t>
+  </si>
+  <si>
+    <t>MNA score</t>
+  </si>
+  <si>
+    <t>Healthy and Western dietary pattern scores</t>
+  </si>
+  <si>
+    <t>Dietary Guidelines Adherence Index (DGAI)</t>
+  </si>
+  <si>
+    <t>Investigator created: Child Diet quality score</t>
+  </si>
+  <si>
+    <t>Alternative Healthy Eating Index</t>
+  </si>
+  <si>
+    <t>KIDMED;DASH;HDI;BQI</t>
+  </si>
+  <si>
+    <t>An abbreviated name of the source of the original data in the case of secondary analyses, multiple reports from the same cohort, national surveys, etc. Does not necessarily include specific details such as survey dates</t>
+  </si>
+  <si>
+    <t>NHANES; PURE study; EPIC study; etc.</t>
+  </si>
+  <si>
+    <t>Listing of dietary quality scores used to assess nutritional quality</t>
+  </si>
+  <si>
+    <t>Categorical, qualitative</t>
+  </si>
+  <si>
+    <t>HEI-1995; DASH score; Mediterranean diet score</t>
+  </si>
 </sst>
 </file>
 
@@ -8100,7 +8563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8172,13 +8635,25 @@
       <sz val="11"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -8227,7 +8702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8281,12 +8756,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C1C0C569-CDA1-4DB5-93CD-F232E9ECBC41}"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8296,6 +8798,24 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy\ hh:mm"/>
@@ -9086,7 +9606,7 @@
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
 <namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="Stephen's View" id="{BB952218-C3A7-47BF-92B0-67471B4663AC}">
-    <nsvFilter filterId="{D642A2FA-6F06-E54B-87A4-66036DC9B4D2}" ref="A1:AO246" tableId="3">
+    <nsvFilter filterId="{D642A2FA-6F06-E54B-87A4-66036DC9B4D2}" ref="A1:AQ246" tableId="3">
       <columnFilter colId="0" id="{3857C700-CCCD-4F5A-AA67-1D36EE4BDB97}">
         <filter colId="0">
           <x:filters>
@@ -9341,54 +9861,62 @@
 </namedSheetViews>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Stephen Fleming" id="{8ADC4302-6660-4A8F-BDB5-127FD73A91CB}" userId="Stephen Fleming" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC231E98-AFBD-454C-96CF-31A5F5FADAE3}" name="DataCleaningViz" displayName="DataCleaningViz" ref="A1:AO246" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44">
-  <autoFilter ref="A1:AO246" xr:uid="{D642A2FA-6F06-E54B-87A4-66036DC9B4D2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CC231E98-AFBD-454C-96CF-31A5F5FADAE3}" name="DataCleaningViz" displayName="DataCleaningViz" ref="A1:AQ246" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46">
+  <autoFilter ref="A1:AQ246" xr:uid="{D642A2FA-6F06-E54B-87A4-66036DC9B4D2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO246">
     <sortCondition ref="A1:A246"/>
   </sortState>
-  <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{3857C700-CCCD-4F5A-AA67-1D36EE4BDB97}" name="Index" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{F7725C3B-51B1-4982-ACA5-F9063569EA8B}" name="IOM" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{C588F79D-F1F4-4F09-BE57-839E5197E019}" name="DGAC" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{03236234-7A22-45EA-8F64-1CBA723874AF}" name="EFSA" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{DCE11FCD-5491-4C8C-9D6F-D69F3136801B}" name="PubMed Search" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{8647A4DF-F754-4B77-B46D-5FE4E74C7BCB}" name="Authors" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{56F325F6-CD93-43BD-B9FA-4F4CD4E18806}" name="Title" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{FFD97ACD-0FE3-457F-816A-D3EEA3B67C4B}" name="Abstract" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{1FBCAA2E-C1EF-4B09-BCCB-7F0661046A8E}" name="DOI" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{B9C41895-4856-4AA2-A50A-E57651FEFB49}" name="PMID" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{0F9FB894-6262-43A5-9F39-D7FBBABACACC}" name="Year" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{999DB0E0-DD94-48B3-9533-03255FFD5A93}" name="Journal" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{E9421A0A-334D-4BE1-A792-EE65A06D88CD}" name="Type" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{30C71520-F32F-400D-8A82-54332E368F46}" name="Design" dataDxfId="29"/>
-    <tableColumn id="17" xr3:uid="{FC0896FA-82FC-4DA9-906E-AFEDF337F4CB}" name="Subject Location" dataDxfId="28"/>
-    <tableColumn id="18" xr3:uid="{2416DB43-7C23-46BE-BF91-619517723B15}" name="Sex" dataDxfId="27"/>
-    <tableColumn id="19" xr3:uid="{F2E89102-1CA6-4627-861E-6BA3B680D432}" name="Age Category" dataDxfId="26"/>
-    <tableColumn id="20" xr3:uid="{5DAC97B6-E6E9-4715-934C-42C81990A7A8}" name="Disease Status _x000a_(at Baseline)" dataDxfId="25"/>
-    <tableColumn id="21" xr3:uid="{4EF4FDEA-40B4-4491-BEBF-82B9202C765B}" name="Weight Status _x000a_(at Baseline)" dataDxfId="24"/>
-    <tableColumn id="23" xr3:uid="{41A90E43-F739-4997-8882-F52342473850}" name="Does the added sugars in the comparators only come from liquids?" dataDxfId="23"/>
-    <tableColumn id="25" xr3:uid="{326F56F5-E10F-4C21-9034-17D5C85446A9}" name="Added Sugars Food Source Description" dataDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{1A4EE724-5C53-413C-A025-2FC5522665EF}" name="Concentration of Total Diet or Component" dataDxfId="21"/>
-    <tableColumn id="32" xr3:uid="{5F16DD9D-A205-427D-A6ED-B8BAC04B1201}" name="Added Sugars Concentration" dataDxfId="20"/>
-    <tableColumn id="33" xr3:uid="{08D0B269-2FB2-4465-8BD1-952DDFC4CFEE}" name="Added Sugars Concentration Unit" dataDxfId="19"/>
-    <tableColumn id="65" xr3:uid="{2D558CF1-7899-43BB-B884-DBA679AD78BF}" name="Concentration Of" dataDxfId="18"/>
-    <tableColumn id="66" xr3:uid="{DCA29BB2-1342-4C0B-9F8E-3FDB8B2C0B23}" name="Concentration grouping" dataDxfId="17"/>
-    <tableColumn id="67" xr3:uid="{315999EB-F90B-467B-AF64-081BD807D461}" name="Concentration Form" dataDxfId="16"/>
-    <tableColumn id="72" xr3:uid="{C6C54B62-DFEA-4039-84B7-0868B6AE9F39}" name="Diet Energy Balance_x000a_(Negative, Neutral, Positive)" dataDxfId="15"/>
-    <tableColumn id="74" xr3:uid="{8568594C-FE42-4BC5-88DD-595E1FCF334F}" name="TE Reported?" dataDxfId="14"/>
-    <tableColumn id="75" xr3:uid="{65E3D5D4-96BA-4AAD-BCD8-092341E9B118}" name="TE Controlled for Experimentally or in the Design" dataDxfId="13"/>
-    <tableColumn id="76" xr3:uid="{12C71BEB-9F0F-4193-BBC5-66E3327B86DA}" name="TE Controlled for as a Covariate in the Analysis" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{55FE525D-7C3C-4693-8276-2258A2EE38A1}" name="Int Sample Size" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{E8B489EB-405E-4708-BD3D-2F043B2E2822}" name="Int Duration" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{7D0CFA45-F315-445F-A4DE-3F791CE46D51}" name="Obs Sample Size" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{04F9D42D-C625-469E-8802-F82D67BCED13}" name="Follow-up time (observational" dataDxfId="8"/>
-    <tableColumn id="57" xr3:uid="{B842D119-F4ED-4424-A2E6-002532486726}" name="Primary Outcome(s)" dataDxfId="7"/>
-    <tableColumn id="58" xr3:uid="{99F905FA-E6FE-4E9E-B605-0C56CE8B0BAA}" name="Primary Outcome(s) Grouped" dataDxfId="6"/>
-    <tableColumn id="59" xr3:uid="{4AEEA8BC-DF12-45C8-BEB0-DC820C7CFCAC}" name="Outcomes Measured" dataDxfId="5"/>
-    <tableColumn id="62" xr3:uid="{E209C090-C0DD-4B2F-BB48-607444875155}" name="TIAB_AS" dataDxfId="4"/>
-    <tableColumn id="63" xr3:uid="{19BB12AB-08D2-45C3-9A34-A74A5F5A23E2}" name="TIAB_SSB" dataDxfId="3"/>
-    <tableColumn id="64" xr3:uid="{1E275A7D-B6D0-4947-B84D-903C39E2C158}" name="TIAB_SSB_AS" dataDxfId="2"/>
+  <tableColumns count="43">
+    <tableColumn id="1" xr3:uid="{3857C700-CCCD-4F5A-AA67-1D36EE4BDB97}" name="Index" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{F7725C3B-51B1-4982-ACA5-F9063569EA8B}" name="IOM" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{C588F79D-F1F4-4F09-BE57-839E5197E019}" name="DGAC" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{03236234-7A22-45EA-8F64-1CBA723874AF}" name="EFSA" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{DCE11FCD-5491-4C8C-9D6F-D69F3136801B}" name="PubMed Search" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{8647A4DF-F754-4B77-B46D-5FE4E74C7BCB}" name="Authors" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{56F325F6-CD93-43BD-B9FA-4F4CD4E18806}" name="Title" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{FFD97ACD-0FE3-457F-816A-D3EEA3B67C4B}" name="Abstract" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{1FBCAA2E-C1EF-4B09-BCCB-7F0661046A8E}" name="DOI" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{B9C41895-4856-4AA2-A50A-E57651FEFB49}" name="PMID" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{0F9FB894-6262-43A5-9F39-D7FBBABACACC}" name="Year" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{999DB0E0-DD94-48B3-9533-03255FFD5A93}" name="Journal" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{E9421A0A-334D-4BE1-A792-EE65A06D88CD}" name="Type" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{30C71520-F32F-400D-8A82-54332E368F46}" name="Design" dataDxfId="31"/>
+    <tableColumn id="17" xr3:uid="{FC0896FA-82FC-4DA9-906E-AFEDF337F4CB}" name="Subject Location" dataDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{2416DB43-7C23-46BE-BF91-619517723B15}" name="Sex" dataDxfId="29"/>
+    <tableColumn id="19" xr3:uid="{F2E89102-1CA6-4627-861E-6BA3B680D432}" name="Age Category" dataDxfId="28"/>
+    <tableColumn id="20" xr3:uid="{5DAC97B6-E6E9-4715-934C-42C81990A7A8}" name="Disease Status _x000a_(at Baseline)" dataDxfId="27"/>
+    <tableColumn id="21" xr3:uid="{4EF4FDEA-40B4-4491-BEBF-82B9202C765B}" name="Weight Status _x000a_(at Baseline)" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{41A90E43-F739-4997-8882-F52342473850}" name="Does the added sugars in the comparators only come from liquids?" dataDxfId="25"/>
+    <tableColumn id="25" xr3:uid="{326F56F5-E10F-4C21-9034-17D5C85446A9}" name="Added Sugars Food Source Description" dataDxfId="24"/>
+    <tableColumn id="31" xr3:uid="{1A4EE724-5C53-413C-A025-2FC5522665EF}" name="Concentration of Total Diet or Component" dataDxfId="23"/>
+    <tableColumn id="32" xr3:uid="{5F16DD9D-A205-427D-A6ED-B8BAC04B1201}" name="Added Sugars Concentration" dataDxfId="22"/>
+    <tableColumn id="33" xr3:uid="{08D0B269-2FB2-4465-8BD1-952DDFC4CFEE}" name="Added Sugars Concentration Unit" dataDxfId="21"/>
+    <tableColumn id="65" xr3:uid="{2D558CF1-7899-43BB-B884-DBA679AD78BF}" name="Concentration Of" dataDxfId="20"/>
+    <tableColumn id="66" xr3:uid="{DCA29BB2-1342-4C0B-9F8E-3FDB8B2C0B23}" name="Concentration grouping" dataDxfId="19"/>
+    <tableColumn id="67" xr3:uid="{315999EB-F90B-467B-AF64-081BD807D461}" name="Concentration Form" dataDxfId="18"/>
+    <tableColumn id="72" xr3:uid="{C6C54B62-DFEA-4039-84B7-0868B6AE9F39}" name="Diet Energy Balance_x000a_(Negative, Neutral, Positive)" dataDxfId="17"/>
+    <tableColumn id="74" xr3:uid="{8568594C-FE42-4BC5-88DD-595E1FCF334F}" name="TE Reported?" dataDxfId="16"/>
+    <tableColumn id="75" xr3:uid="{65E3D5D4-96BA-4AAD-BCD8-092341E9B118}" name="TE Controlled for Experimentally or in the Design" dataDxfId="15"/>
+    <tableColumn id="76" xr3:uid="{12C71BEB-9F0F-4193-BBC5-66E3327B86DA}" name="TE Controlled for as a Covariate in the Analysis" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{55FE525D-7C3C-4693-8276-2258A2EE38A1}" name="Int Sample Size" dataDxfId="13"/>
+    <tableColumn id="24" xr3:uid="{E8B489EB-405E-4708-BD3D-2F043B2E2822}" name="Int Duration" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{7D0CFA45-F315-445F-A4DE-3F791CE46D51}" name="Obs Sample Size" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{04F9D42D-C625-469E-8802-F82D67BCED13}" name="Follow-up time (observational" dataDxfId="10"/>
+    <tableColumn id="57" xr3:uid="{B842D119-F4ED-4424-A2E6-002532486726}" name="Primary Outcome(s)" dataDxfId="9"/>
+    <tableColumn id="58" xr3:uid="{99F905FA-E6FE-4E9E-B605-0C56CE8B0BAA}" name="Primary Outcome(s) Grouped" dataDxfId="8"/>
+    <tableColumn id="59" xr3:uid="{4AEEA8BC-DF12-45C8-BEB0-DC820C7CFCAC}" name="Outcomes Measured" dataDxfId="7"/>
+    <tableColumn id="62" xr3:uid="{E209C090-C0DD-4B2F-BB48-607444875155}" name="TIAB_AS" dataDxfId="6"/>
+    <tableColumn id="63" xr3:uid="{19BB12AB-08D2-45C3-9A34-A74A5F5A23E2}" name="TIAB_SSB" dataDxfId="5"/>
+    <tableColumn id="64" xr3:uid="{1E275A7D-B6D0-4947-B84D-903C39E2C158}" name="TIAB_SSB_AS" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{D4C5B159-E46F-4CE4-B662-C65114BC9001}" name="Parent Study Name" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{85411172-72C9-4008-B97C-C66DC79E503D}" name="Diet Quality Score Assessed?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9444,7 +9972,7 @@
   <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F4BFABED-8398-4678-93B7-950CF5B14AC3}" name="Added By"/>
-    <tableColumn id="2" xr3:uid="{BF1E1E6D-F2F1-482D-A585-CCB5A102EFCE}" name="Added On" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BF1E1E6D-F2F1-482D-A585-CCB5A102EFCE}" name="Added On" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{C1F37FE9-F950-4A25-A3DA-87D61A26FD4B}" name="Worksheet"/>
     <tableColumn id="6" xr3:uid="{050D823D-B08C-4EA7-BEE7-2CB2158460FE}" name="Range"/>
   </tableColumns>
@@ -9713,13 +10241,24 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AP191" dT="2023-02-02T02:05:29.68" personId="{8ADC4302-6660-4A8F-BDB5-127FD73A91CB}" id="{7ECA20C5-6E53-4891-B2B5-C6F8C1A1822A}">
+    <text>Not specified, even though they note this is a secondary analysis.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D642A2FA-6F06-E54B-87A4-66036DC9B4D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D642A2FA-6F06-E54B-87A4-66036DC9B4D2}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AP247"/>
+  <dimension ref="A1:AQ247"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="Z218" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AQ243" sqref="AQ243"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="Y109" workbookViewId="1">
+      <selection activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -9742,7 +10281,7 @@
     <col min="43" max="16384" width="12.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="11" customFormat="1" ht="122.25" customHeight="1">
+    <row r="1" spans="1:43" s="11" customFormat="1" ht="122.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -9866,8 +10405,14 @@
       <c r="AO1" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP1" s="21" t="s">
+        <v>2647</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" ht="15.75" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -9985,9 +10530,14 @@
       <c r="AO2" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP2" s="10"/>
-    </row>
-    <row r="3" spans="1:42" ht="15">
+      <c r="AP2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ2" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" ht="15">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -10111,9 +10661,14 @@
       <c r="AO3" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP3" s="10"/>
-    </row>
-    <row r="4" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP3" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ3" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" ht="15.75" customHeight="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -10237,9 +10792,14 @@
       <c r="AO4" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP4" s="10"/>
-    </row>
-    <row r="5" spans="1:42" ht="15">
+      <c r="AP4" s="20" t="s">
+        <v>2648</v>
+      </c>
+      <c r="AQ4" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="15">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -10363,9 +10923,14 @@
       <c r="AO5" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP5" s="10"/>
-    </row>
-    <row r="6" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ5" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" ht="15.75" customHeight="1">
       <c r="A6" s="15">
         <v>6</v>
       </c>
@@ -10483,9 +11048,14 @@
       <c r="AO6" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP6" s="10"/>
-    </row>
-    <row r="7" spans="1:42" ht="15">
+      <c r="AP6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ6" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" ht="15">
       <c r="A7" s="15">
         <v>7</v>
       </c>
@@ -10609,9 +11179,14 @@
       <c r="AO7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP7" s="10"/>
-    </row>
-    <row r="8" spans="1:42" ht="15">
+      <c r="AP7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ7" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" ht="15">
       <c r="A8" s="15">
         <v>8</v>
       </c>
@@ -10735,9 +11310,14 @@
       <c r="AO8" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP8" s="10"/>
-    </row>
-    <row r="9" spans="1:42" ht="15">
+      <c r="AP8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ8" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="15">
       <c r="A9" s="15">
         <v>9</v>
       </c>
@@ -10861,9 +11441,14 @@
       <c r="AO9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP9" s="10"/>
-    </row>
-    <row r="10" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP9" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ9" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="15.75" customHeight="1">
       <c r="A10" s="15">
         <v>10</v>
       </c>
@@ -10981,9 +11566,14 @@
       <c r="AO10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP10" s="10"/>
-    </row>
-    <row r="11" spans="1:42" ht="15">
+      <c r="AP10" s="20" t="s">
+        <v>2649</v>
+      </c>
+      <c r="AQ10" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="15">
       <c r="A11" s="15">
         <v>11</v>
       </c>
@@ -11107,9 +11697,14 @@
       <c r="AO11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP11" s="10"/>
-    </row>
-    <row r="12" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ11" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="15.75" customHeight="1">
       <c r="A12" s="15">
         <v>12</v>
       </c>
@@ -11233,9 +11828,14 @@
       <c r="AO12" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP12" s="10"/>
-    </row>
-    <row r="13" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP12" s="20" t="s">
+        <v>2650</v>
+      </c>
+      <c r="AQ12" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="15.75" customHeight="1">
       <c r="A13" s="15">
         <v>13</v>
       </c>
@@ -11359,9 +11959,14 @@
       <c r="AO13" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP13" s="10"/>
-    </row>
-    <row r="14" spans="1:42" ht="15">
+      <c r="AP13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ13" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" ht="15">
       <c r="A14" s="15">
         <v>14</v>
       </c>
@@ -11485,9 +12090,14 @@
       <c r="AO14" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP14" s="10"/>
-    </row>
-    <row r="15" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP14" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ14" s="20" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="15.75" customHeight="1">
       <c r="A15" s="15">
         <v>15</v>
       </c>
@@ -11611,9 +12221,14 @@
       <c r="AO15" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP15" s="10"/>
-    </row>
-    <row r="16" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP15" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ15" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="15.75" customHeight="1">
       <c r="A16" s="15">
         <v>16</v>
       </c>
@@ -11737,9 +12352,14 @@
       <c r="AO16" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP16" s="10"/>
-    </row>
-    <row r="17" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP16" s="20" t="s">
+        <v>2652</v>
+      </c>
+      <c r="AQ16" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" ht="15.75" customHeight="1">
       <c r="A17" s="15">
         <v>17</v>
       </c>
@@ -11857,9 +12477,14 @@
       <c r="AO17" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP17" s="10"/>
-    </row>
-    <row r="18" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ17" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" ht="15.75" customHeight="1">
       <c r="A18" s="15">
         <v>18</v>
       </c>
@@ -11983,9 +12608,14 @@
       <c r="AO18" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP18" s="10"/>
-    </row>
-    <row r="19" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP18" s="20" t="s">
+        <v>2653</v>
+      </c>
+      <c r="AQ18" s="20" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" ht="15.75" customHeight="1">
       <c r="A19" s="15">
         <v>19</v>
       </c>
@@ -12109,9 +12739,14 @@
       <c r="AO19" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP19" s="10"/>
-    </row>
-    <row r="20" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP19" s="20" t="s">
+        <v>2654</v>
+      </c>
+      <c r="AQ19" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" ht="15.75" customHeight="1">
       <c r="A20" s="15">
         <v>20</v>
       </c>
@@ -12235,9 +12870,14 @@
       <c r="AO20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP20" s="10"/>
-    </row>
-    <row r="21" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP20" s="20" t="s">
+        <v>2655</v>
+      </c>
+      <c r="AQ20" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" ht="15.75" customHeight="1">
       <c r="A21" s="15">
         <v>21</v>
       </c>
@@ -12361,9 +13001,14 @@
       <c r="AO21" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP21" s="10"/>
-    </row>
-    <row r="22" spans="1:42" ht="15">
+      <c r="AP21" s="20" t="s">
+        <v>2656</v>
+      </c>
+      <c r="AQ21" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" ht="15">
       <c r="A22" s="15">
         <v>22</v>
       </c>
@@ -12487,9 +13132,14 @@
       <c r="AO22" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP22" s="10"/>
-    </row>
-    <row r="23" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ22" s="20" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" ht="15.75" customHeight="1">
       <c r="A23" s="15">
         <v>25</v>
       </c>
@@ -12613,9 +13263,14 @@
       <c r="AO23" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP23" s="10"/>
-    </row>
-    <row r="24" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP23" s="20" t="s">
+        <v>2657</v>
+      </c>
+      <c r="AQ23" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" ht="15.75" customHeight="1">
       <c r="A24" s="15">
         <v>27</v>
       </c>
@@ -12739,9 +13394,14 @@
       <c r="AO24" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP24" s="10"/>
-    </row>
-    <row r="25" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP24" s="20" t="s">
+        <v>2658</v>
+      </c>
+      <c r="AQ24" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" ht="15.75" customHeight="1">
       <c r="A25" s="15">
         <v>29</v>
       </c>
@@ -12865,9 +13525,14 @@
       <c r="AO25" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP25" s="10"/>
-    </row>
-    <row r="26" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP25" s="20" t="s">
+        <v>2659</v>
+      </c>
+      <c r="AQ25" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" ht="15.75" customHeight="1">
       <c r="A26" s="15">
         <v>30</v>
       </c>
@@ -12985,9 +13650,14 @@
       <c r="AO26" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP26" s="10"/>
-    </row>
-    <row r="27" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP26" s="20" t="s">
+        <v>2660</v>
+      </c>
+      <c r="AQ26" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" ht="15.75" customHeight="1">
       <c r="A27" s="15">
         <v>31</v>
       </c>
@@ -13111,9 +13781,14 @@
       <c r="AO27" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP27" s="10"/>
-    </row>
-    <row r="28" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP27" s="20" t="s">
+        <v>2661</v>
+      </c>
+      <c r="AQ27" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" ht="15.75" customHeight="1">
       <c r="A28" s="15">
         <v>32</v>
       </c>
@@ -13237,9 +13912,14 @@
       <c r="AO28" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP28" s="10"/>
-    </row>
-    <row r="29" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP28" s="20" t="s">
+        <v>2662</v>
+      </c>
+      <c r="AQ28" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" ht="15.75" customHeight="1">
       <c r="A29" s="15">
         <v>33</v>
       </c>
@@ -13357,9 +14037,14 @@
       <c r="AO29" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP29" s="10"/>
-    </row>
-    <row r="30" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP29" s="20" t="s">
+        <v>2663</v>
+      </c>
+      <c r="AQ29" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" ht="15.75" customHeight="1">
       <c r="A30" s="15">
         <v>34</v>
       </c>
@@ -13483,9 +14168,14 @@
       <c r="AO30" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP30" s="10"/>
-    </row>
-    <row r="31" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP30" s="20" t="s">
+        <v>2664</v>
+      </c>
+      <c r="AQ30" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" ht="15.75" customHeight="1">
       <c r="A31" s="15">
         <v>35</v>
       </c>
@@ -13609,9 +14299,14 @@
       <c r="AO31" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP31" s="10"/>
-    </row>
-    <row r="32" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP31" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ31" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" ht="15.75" customHeight="1">
       <c r="A32" s="15">
         <v>36</v>
       </c>
@@ -13735,9 +14430,14 @@
       <c r="AO32" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP32" s="10"/>
-    </row>
-    <row r="33" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP32" s="20" t="s">
+        <v>2665</v>
+      </c>
+      <c r="AQ32" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" ht="15.75" customHeight="1">
       <c r="A33" s="15">
         <v>37</v>
       </c>
@@ -13855,9 +14555,14 @@
       <c r="AO33" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP33" s="10"/>
-    </row>
-    <row r="34" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP33" s="20" t="s">
+        <v>2666</v>
+      </c>
+      <c r="AQ33" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" ht="15.75" customHeight="1">
       <c r="A34" s="15">
         <v>38</v>
       </c>
@@ -13975,9 +14680,14 @@
       <c r="AO34" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP34" s="10"/>
-    </row>
-    <row r="35" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP34" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ34" s="20" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" ht="15.75" customHeight="1">
       <c r="A35" s="15">
         <v>39</v>
       </c>
@@ -14101,9 +14811,14 @@
       <c r="AO35" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP35" s="10"/>
-    </row>
-    <row r="36" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP35" s="20" t="s">
+        <v>2667</v>
+      </c>
+      <c r="AQ35" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" ht="15.75" customHeight="1">
       <c r="A36" s="15">
         <v>40</v>
       </c>
@@ -14221,9 +14936,14 @@
       <c r="AO36" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP36" s="10"/>
-    </row>
-    <row r="37" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP36" s="20" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AQ36" s="20" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" ht="15.75" customHeight="1">
       <c r="A37" s="15">
         <v>41</v>
       </c>
@@ -14347,9 +15067,14 @@
       <c r="AO37" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP37" s="10"/>
-    </row>
-    <row r="38" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP37" s="20" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AQ37" s="20" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" ht="15.75" customHeight="1">
       <c r="A38" s="15">
         <v>42</v>
       </c>
@@ -14467,9 +15192,14 @@
       <c r="AO38" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP38" s="10"/>
-    </row>
-    <row r="39" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP38" s="20" t="s">
+        <v>2670</v>
+      </c>
+      <c r="AQ38" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" ht="15.75" customHeight="1">
       <c r="A39" s="15">
         <v>43</v>
       </c>
@@ -14587,9 +15317,14 @@
       <c r="AO39" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP39" s="10"/>
-    </row>
-    <row r="40" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP39" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ39" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" ht="15.75" customHeight="1">
       <c r="A40" s="15">
         <v>44</v>
       </c>
@@ -14713,9 +15448,14 @@
       <c r="AO40" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP40" s="10"/>
-    </row>
-    <row r="41" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP40" s="20" t="s">
+        <v>2671</v>
+      </c>
+      <c r="AQ40" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" ht="15.75" customHeight="1">
       <c r="A41" s="15">
         <v>46</v>
       </c>
@@ -14836,9 +15576,14 @@
       <c r="AO41" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP41" s="10"/>
-    </row>
-    <row r="42" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP41" s="20" t="s">
+        <v>2672</v>
+      </c>
+      <c r="AQ41" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" ht="15.75" customHeight="1">
       <c r="A42" s="15">
         <v>47</v>
       </c>
@@ -14956,9 +15701,14 @@
       <c r="AO42" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP42" s="10"/>
-    </row>
-    <row r="43" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP42" s="20" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AQ42" s="22" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" ht="15.75" customHeight="1">
       <c r="A43" s="15">
         <v>48</v>
       </c>
@@ -15076,9 +15826,14 @@
       <c r="AO43" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP43" s="10"/>
-    </row>
-    <row r="44" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP43" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ43" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" ht="15.75" customHeight="1">
       <c r="A44" s="15">
         <v>49</v>
       </c>
@@ -15196,9 +15951,14 @@
       <c r="AO44" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP44" s="10"/>
-    </row>
-    <row r="45" spans="1:42" ht="15">
+      <c r="AP44" s="20" t="s">
+        <v>2674</v>
+      </c>
+      <c r="AQ44" s="20" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" ht="15">
       <c r="A45" s="15">
         <v>50</v>
       </c>
@@ -15316,9 +16076,14 @@
       <c r="AO45" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP45" s="10"/>
-    </row>
-    <row r="46" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ45" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" ht="15.75" customHeight="1">
       <c r="A46" s="15">
         <v>51</v>
       </c>
@@ -15436,9 +16201,14 @@
       <c r="AO46" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP46" s="10"/>
-    </row>
-    <row r="47" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP46" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ46" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" ht="15.75" customHeight="1">
       <c r="A47" s="15">
         <v>52</v>
       </c>
@@ -15556,9 +16326,14 @@
       <c r="AO47" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP47" s="10"/>
-    </row>
-    <row r="48" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP47" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ47" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" ht="15.75" customHeight="1">
       <c r="A48" s="15">
         <v>53</v>
       </c>
@@ -15676,9 +16451,14 @@
       <c r="AO48" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP48" s="10"/>
-    </row>
-    <row r="49" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP48" s="20" t="s">
+        <v>2675</v>
+      </c>
+      <c r="AQ48" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" ht="15.75" customHeight="1">
       <c r="A49" s="15">
         <v>54</v>
       </c>
@@ -15802,9 +16582,14 @@
       <c r="AO49" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP49" s="10"/>
-    </row>
-    <row r="50" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP49" s="20" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AQ49" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" ht="15.75" customHeight="1">
       <c r="A50" s="15">
         <v>55</v>
       </c>
@@ -15922,9 +16707,14 @@
       <c r="AO50" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP50" s="10"/>
-    </row>
-    <row r="51" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP50" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ50" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" ht="15.75" customHeight="1">
       <c r="A51" s="15">
         <v>56</v>
       </c>
@@ -16042,9 +16832,14 @@
       <c r="AO51" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP51" s="10"/>
-    </row>
-    <row r="52" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP51" s="20" t="s">
+        <v>2677</v>
+      </c>
+      <c r="AQ51" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" ht="15.75" customHeight="1">
       <c r="A52" s="15">
         <v>57</v>
       </c>
@@ -16168,9 +16963,14 @@
       <c r="AO52" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP52" s="10"/>
-    </row>
-    <row r="53" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP52" s="20" t="s">
+        <v>2678</v>
+      </c>
+      <c r="AQ52" s="22" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" ht="15.75" customHeight="1">
       <c r="A53" s="15">
         <v>58</v>
       </c>
@@ -16294,9 +17094,14 @@
       <c r="AO53" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP53" s="10"/>
-    </row>
-    <row r="54" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP53" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ53" s="22" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" ht="15.75" customHeight="1">
       <c r="A54" s="15">
         <v>60</v>
       </c>
@@ -16414,9 +17219,14 @@
       <c r="AO54" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP54" s="10"/>
-    </row>
-    <row r="55" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP54" s="20" t="s">
+        <v>2679</v>
+      </c>
+      <c r="AQ54" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" ht="15.75" customHeight="1">
       <c r="A55" s="15">
         <v>61</v>
       </c>
@@ -16540,9 +17350,14 @@
       <c r="AO55" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP55" s="10"/>
-    </row>
-    <row r="56" spans="1:42" ht="15">
+      <c r="AP55" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ55" s="22" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" ht="15">
       <c r="A56" s="15">
         <v>62</v>
       </c>
@@ -16660,9 +17475,14 @@
       <c r="AO56" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP56" s="10"/>
-    </row>
-    <row r="57" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP56" s="20" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AQ56" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" ht="15.75" customHeight="1">
       <c r="A57" s="15">
         <v>63</v>
       </c>
@@ -16780,9 +17600,14 @@
       <c r="AO57" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP57" s="10"/>
-    </row>
-    <row r="58" spans="1:42" ht="15">
+      <c r="AP57" s="20" t="s">
+        <v>2680</v>
+      </c>
+      <c r="AQ57" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" ht="15">
       <c r="A58" s="15">
         <v>64</v>
       </c>
@@ -16900,9 +17725,14 @@
       <c r="AO58" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP58" s="10"/>
-    </row>
-    <row r="59" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP58" s="20" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AQ58" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" ht="15.75" customHeight="1">
       <c r="A59" s="15">
         <v>65</v>
       </c>
@@ -17020,9 +17850,14 @@
       <c r="AO59" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP59" s="10"/>
-    </row>
-    <row r="60" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP59" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ59" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" ht="15.75" customHeight="1">
       <c r="A60" s="15">
         <v>66</v>
       </c>
@@ -17140,9 +17975,14 @@
       <c r="AO60" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP60" s="10"/>
-    </row>
-    <row r="61" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP60" s="20" t="s">
+        <v>2681</v>
+      </c>
+      <c r="AQ60" s="20" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" ht="15.75" customHeight="1">
       <c r="A61" s="15">
         <v>67</v>
       </c>
@@ -17260,9 +18100,14 @@
       <c r="AO61" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP61" s="10"/>
-    </row>
-    <row r="62" spans="1:42" ht="15">
+      <c r="AP61" s="20" t="s">
+        <v>2682</v>
+      </c>
+      <c r="AQ61" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" ht="15">
       <c r="A62" s="15">
         <v>68</v>
       </c>
@@ -17380,9 +18225,14 @@
       <c r="AO62" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP62" s="10"/>
-    </row>
-    <row r="63" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP62" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ62" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" ht="15.75" customHeight="1">
       <c r="A63" s="15">
         <v>69</v>
       </c>
@@ -17506,9 +18356,14 @@
       <c r="AO63" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP63" s="10"/>
-    </row>
-    <row r="64" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP63" s="20" t="s">
+        <v>2683</v>
+      </c>
+      <c r="AQ63" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" ht="15.75" customHeight="1">
       <c r="A64" s="15">
         <v>71</v>
       </c>
@@ -17632,9 +18487,14 @@
       <c r="AO64" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP64" s="10"/>
-    </row>
-    <row r="65" spans="1:42" ht="15">
+      <c r="AP64" s="20" t="s">
+        <v>2684</v>
+      </c>
+      <c r="AQ64" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" ht="15">
       <c r="A65" s="15">
         <v>72</v>
       </c>
@@ -17758,9 +18618,14 @@
       <c r="AO65" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP65" s="10"/>
-    </row>
-    <row r="66" spans="1:42" ht="15">
+      <c r="AP65" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ65" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:43" ht="15">
       <c r="A66" s="15">
         <v>73</v>
       </c>
@@ -17884,9 +18749,14 @@
       <c r="AO66" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP66" s="10"/>
-    </row>
-    <row r="67" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP66" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ66" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" ht="15.75" customHeight="1">
       <c r="A67" s="15">
         <v>74</v>
       </c>
@@ -18010,9 +18880,14 @@
       <c r="AO67" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP67" s="10"/>
-    </row>
-    <row r="68" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP67" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ67" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" ht="15.75" customHeight="1">
       <c r="A68" s="15">
         <v>75</v>
       </c>
@@ -18136,9 +19011,14 @@
       <c r="AO68" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP68" s="10"/>
-    </row>
-    <row r="69" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP68" s="20" t="s">
+        <v>2669</v>
+      </c>
+      <c r="AQ68" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43" ht="15.75" customHeight="1">
       <c r="A69" s="15">
         <v>76</v>
       </c>
@@ -18256,9 +19136,14 @@
       <c r="AO69" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP69" s="10"/>
-    </row>
-    <row r="70" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP69" s="20" t="s">
+        <v>2685</v>
+      </c>
+      <c r="AQ69" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" ht="15.75" customHeight="1">
       <c r="A70" s="15">
         <v>77</v>
       </c>
@@ -18382,9 +19267,14 @@
       <c r="AO70" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP70" s="10"/>
-    </row>
-    <row r="71" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP70" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ70" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:43" ht="15.75" customHeight="1">
       <c r="A71" s="15">
         <v>78</v>
       </c>
@@ -18508,9 +19398,14 @@
       <c r="AO71" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP71" s="10"/>
-    </row>
-    <row r="72" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP71" s="20" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AQ71" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43" ht="15.75" customHeight="1">
       <c r="A72" s="15">
         <v>79</v>
       </c>
@@ -18628,9 +19523,14 @@
       <c r="AO72" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP72" s="10"/>
-    </row>
-    <row r="73" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP72" s="20" t="s">
+        <v>2687</v>
+      </c>
+      <c r="AQ72" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" ht="15.75" customHeight="1">
       <c r="A73" s="15">
         <v>80</v>
       </c>
@@ -18754,9 +19654,14 @@
       <c r="AO73" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP73" s="10"/>
-    </row>
-    <row r="74" spans="1:42" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AP73" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ73" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A74" s="15">
         <v>81</v>
       </c>
@@ -18876,8 +19781,14 @@
       <c r="AO74" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP74" s="20" t="s">
+        <v>2688</v>
+      </c>
+      <c r="AQ74" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" ht="15.75" customHeight="1">
       <c r="A75" s="15">
         <v>82</v>
       </c>
@@ -18995,9 +19906,14 @@
       <c r="AO75" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP75" s="10"/>
-    </row>
-    <row r="76" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP75" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ75" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:43" ht="15.75" customHeight="1">
       <c r="A76" s="15">
         <v>83</v>
       </c>
@@ -19115,9 +20031,14 @@
       <c r="AO76" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP76" s="10"/>
-    </row>
-    <row r="77" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP76" s="20" t="s">
+        <v>2689</v>
+      </c>
+      <c r="AQ76" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" ht="15.75" customHeight="1">
       <c r="A77" s="15">
         <v>84</v>
       </c>
@@ -19235,9 +20156,14 @@
       <c r="AO77" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP77" s="10"/>
-    </row>
-    <row r="78" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP77" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ77" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" ht="15.75" customHeight="1">
       <c r="A78" s="15">
         <v>85</v>
       </c>
@@ -19355,9 +20281,14 @@
       <c r="AO78" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP78" s="10"/>
-    </row>
-    <row r="79" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP78" s="20" t="s">
+        <v>2690</v>
+      </c>
+      <c r="AQ78" s="22" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" ht="15.75" customHeight="1">
       <c r="A79" s="15">
         <v>86</v>
       </c>
@@ -19475,9 +20406,14 @@
       <c r="AO79" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP79" s="10"/>
-    </row>
-    <row r="80" spans="1:42" s="17" customFormat="1" ht="15.75" customHeight="1">
+      <c r="AP79" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ79" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43" s="17" customFormat="1" ht="15.75" customHeight="1">
       <c r="A80" s="15">
         <v>87</v>
       </c>
@@ -19601,8 +20537,14 @@
       <c r="AO80" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP80" s="20" t="s">
+        <v>2691</v>
+      </c>
+      <c r="AQ80" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" ht="15.75" customHeight="1">
       <c r="A81" s="15">
         <v>88</v>
       </c>
@@ -19726,9 +20668,14 @@
       <c r="AO81" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP81" s="10"/>
-    </row>
-    <row r="82" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP81" s="20" t="s">
+        <v>2692</v>
+      </c>
+      <c r="AQ81" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" ht="15.75" customHeight="1">
       <c r="A82" s="15">
         <v>89</v>
       </c>
@@ -19846,9 +20793,14 @@
       <c r="AO82" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP82" s="10"/>
-    </row>
-    <row r="83" spans="1:42" ht="15">
+      <c r="AP82" s="20" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AQ82" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" ht="15">
       <c r="A83" s="15">
         <v>90</v>
       </c>
@@ -19966,9 +20918,14 @@
       <c r="AO83" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP83" s="10"/>
-    </row>
-    <row r="84" spans="1:42" ht="15">
+      <c r="AP83" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ83" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" ht="15">
       <c r="A84" s="15">
         <v>95</v>
       </c>
@@ -20092,9 +21049,14 @@
       <c r="AO84" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP84" s="10"/>
-    </row>
-    <row r="85" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP84" s="20" t="s">
+        <v>2693</v>
+      </c>
+      <c r="AQ84" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" ht="15.75" customHeight="1">
       <c r="A85" s="15">
         <v>97</v>
       </c>
@@ -20218,9 +21180,14 @@
       <c r="AO85" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP85" s="10"/>
-    </row>
-    <row r="86" spans="1:42" ht="15">
+      <c r="AP85" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ85" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43" ht="15">
       <c r="A86" s="15">
         <v>98</v>
       </c>
@@ -20344,9 +21311,14 @@
       <c r="AO86" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP86" s="10"/>
-    </row>
-    <row r="87" spans="1:42" ht="15">
+      <c r="AP86" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ86" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43" ht="15">
       <c r="A87" s="15">
         <v>99</v>
       </c>
@@ -20464,9 +21436,14 @@
       <c r="AO87" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP87" s="10"/>
-    </row>
-    <row r="88" spans="1:42" ht="15">
+      <c r="AP87" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ87" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:43" ht="15">
       <c r="A88" s="15">
         <v>100</v>
       </c>
@@ -20584,9 +21561,14 @@
       <c r="AO88" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP88" s="10"/>
-    </row>
-    <row r="89" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP88" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ88" s="22" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43" ht="15.75" customHeight="1">
       <c r="A89" s="15">
         <v>101</v>
       </c>
@@ -20710,9 +21692,14 @@
       <c r="AO89" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP89" s="10"/>
-    </row>
-    <row r="90" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP89" s="20" t="s">
+        <v>2694</v>
+      </c>
+      <c r="AQ89" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43" ht="15.75" customHeight="1">
       <c r="A90" s="15">
         <v>102</v>
       </c>
@@ -20836,9 +21823,14 @@
       <c r="AO90" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP90" s="10"/>
-    </row>
-    <row r="91" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP90" s="20" t="s">
+        <v>2695</v>
+      </c>
+      <c r="AQ90" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" ht="15.75" customHeight="1">
       <c r="A91" s="15">
         <v>103</v>
       </c>
@@ -20962,9 +21954,14 @@
       <c r="AO91" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP91" s="10"/>
-    </row>
-    <row r="92" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP91" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ91" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" ht="15.75" customHeight="1">
       <c r="A92" s="15">
         <v>105</v>
       </c>
@@ -21088,9 +22085,14 @@
       <c r="AO92" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP92" s="10"/>
-    </row>
-    <row r="93" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP92" s="20" t="s">
+        <v>2696</v>
+      </c>
+      <c r="AQ92" s="22" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43" ht="15.75" customHeight="1">
       <c r="A93" s="15">
         <v>108</v>
       </c>
@@ -21208,9 +22210,14 @@
       <c r="AO93" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP93" s="10"/>
-    </row>
-    <row r="94" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP93" s="20" t="s">
+        <v>2697</v>
+      </c>
+      <c r="AQ93" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:43" ht="15.75" customHeight="1">
       <c r="A94" s="15">
         <v>109</v>
       </c>
@@ -21334,9 +22341,14 @@
       <c r="AO94" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP94" s="10"/>
-    </row>
-    <row r="95" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP94" s="20" t="s">
+        <v>2698</v>
+      </c>
+      <c r="AQ94" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43" ht="15.75" customHeight="1">
       <c r="A95" s="15">
         <v>110</v>
       </c>
@@ -21454,9 +22466,14 @@
       <c r="AO95" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP95" s="10"/>
-    </row>
-    <row r="96" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP95" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ95" s="22" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43" ht="15.75" customHeight="1">
       <c r="A96" s="15">
         <v>111</v>
       </c>
@@ -21580,9 +22597,14 @@
       <c r="AO96" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP96" s="10"/>
-    </row>
-    <row r="97" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP96" s="20" t="s">
+        <v>2699</v>
+      </c>
+      <c r="AQ96" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:43" ht="15.75" customHeight="1">
       <c r="A97" s="15">
         <v>112</v>
       </c>
@@ -21700,9 +22722,14 @@
       <c r="AO97" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP97" s="10"/>
-    </row>
-    <row r="98" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP97" s="20" t="s">
+        <v>2700</v>
+      </c>
+      <c r="AQ97" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:43" ht="15.75" customHeight="1">
       <c r="A98" s="15">
         <v>113</v>
       </c>
@@ -21826,9 +22853,14 @@
       <c r="AO98" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP98" s="10"/>
-    </row>
-    <row r="99" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP98" s="20" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AQ98" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:43" ht="15.75" customHeight="1">
       <c r="A99" s="15">
         <v>114</v>
       </c>
@@ -21952,9 +22984,14 @@
       <c r="AO99" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP99" s="10"/>
-    </row>
-    <row r="100" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP99" s="20" t="s">
+        <v>2653</v>
+      </c>
+      <c r="AQ99" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:43" ht="15.75" customHeight="1">
       <c r="A100" s="15">
         <v>115</v>
       </c>
@@ -22078,9 +23115,14 @@
       <c r="AO100" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP100" s="10"/>
-    </row>
-    <row r="101" spans="1:42" ht="15">
+      <c r="AP100" s="20" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AQ100" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:43" ht="15">
       <c r="A101" s="15">
         <v>117</v>
       </c>
@@ -22198,9 +23240,14 @@
       <c r="AO101" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP101" s="10"/>
-    </row>
-    <row r="102" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP101" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ101" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" ht="15.75" customHeight="1">
       <c r="A102" s="15">
         <v>118</v>
       </c>
@@ -22324,9 +23371,14 @@
       <c r="AO102" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP102" s="10"/>
-    </row>
-    <row r="103" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP102" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ102" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:43" ht="15.75" customHeight="1">
       <c r="A103" s="15">
         <v>119</v>
       </c>
@@ -22450,9 +23502,14 @@
       <c r="AO103" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP103" s="10"/>
-    </row>
-    <row r="104" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP103" s="20" t="s">
+        <v>2703</v>
+      </c>
+      <c r="AQ103" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:43" ht="15.75" customHeight="1">
       <c r="A104" s="15">
         <v>120</v>
       </c>
@@ -22570,9 +23627,14 @@
       <c r="AO104" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP104" s="10"/>
-    </row>
-    <row r="105" spans="1:42" ht="15">
+      <c r="AP104" s="20" t="s">
+        <v>2704</v>
+      </c>
+      <c r="AQ104" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" ht="15">
       <c r="A105" s="15">
         <v>122</v>
       </c>
@@ -22696,9 +23758,14 @@
       <c r="AO105" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP105" s="10"/>
-    </row>
-    <row r="106" spans="1:42" ht="15">
+      <c r="AP105" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ105" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:43" ht="15">
       <c r="A106" s="15">
         <v>123</v>
       </c>
@@ -22822,9 +23889,14 @@
       <c r="AO106" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP106" s="10"/>
-    </row>
-    <row r="107" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP106" s="20" t="s">
+        <v>2705</v>
+      </c>
+      <c r="AQ106" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43" ht="15.75" customHeight="1">
       <c r="A107" s="15">
         <v>124</v>
       </c>
@@ -22942,9 +24014,14 @@
       <c r="AO107" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP107" s="10"/>
-    </row>
-    <row r="108" spans="1:42" ht="15">
+      <c r="AP107" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ107" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:43" ht="15">
       <c r="A108" s="15">
         <v>125</v>
       </c>
@@ -23068,9 +24145,14 @@
       <c r="AO108" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP108" s="10"/>
-    </row>
-    <row r="109" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP108" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ108" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:43" ht="15.75" customHeight="1">
       <c r="A109" s="15">
         <v>126</v>
       </c>
@@ -23194,9 +24276,14 @@
       <c r="AO109" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP109" s="10"/>
-    </row>
-    <row r="110" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP109" s="20" t="s">
+        <v>2706</v>
+      </c>
+      <c r="AQ109" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:43" ht="15.75" customHeight="1">
       <c r="A110" s="15">
         <v>127</v>
       </c>
@@ -23320,9 +24407,14 @@
       <c r="AO110" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP110" s="10"/>
-    </row>
-    <row r="111" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP110" s="20" t="s">
+        <v>2688</v>
+      </c>
+      <c r="AQ110" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:43" ht="15.75" customHeight="1">
       <c r="A111" s="15">
         <v>128</v>
       </c>
@@ -23446,9 +24538,14 @@
       <c r="AO111" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP111" s="10"/>
-    </row>
-    <row r="112" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP111" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ111" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:43" ht="15.75" customHeight="1">
       <c r="A112" s="15">
         <v>129</v>
       </c>
@@ -23566,9 +24663,14 @@
       <c r="AO112" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP112" s="10"/>
-    </row>
-    <row r="113" spans="1:42" ht="15">
+      <c r="AP112" s="20" t="s">
+        <v>2707</v>
+      </c>
+      <c r="AQ112" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:43" ht="15">
       <c r="A113" s="15">
         <v>130</v>
       </c>
@@ -23692,9 +24794,14 @@
       <c r="AO113" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP113" s="10"/>
-    </row>
-    <row r="114" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP113" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ113" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:43" ht="15.75" customHeight="1">
       <c r="A114" s="15">
         <v>131</v>
       </c>
@@ -23812,9 +24919,14 @@
       <c r="AO114" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP114" s="10"/>
-    </row>
-    <row r="115" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP114" s="20" t="s">
+        <v>2708</v>
+      </c>
+      <c r="AQ114" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:43" ht="15.75" customHeight="1">
       <c r="A115" s="15">
         <v>133</v>
       </c>
@@ -23938,9 +25050,14 @@
       <c r="AO115" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP115" s="10"/>
-    </row>
-    <row r="116" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP115" s="20" t="s">
+        <v>2709</v>
+      </c>
+      <c r="AQ115" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:43" ht="15.75" customHeight="1">
       <c r="A116" s="15">
         <v>134</v>
       </c>
@@ -24058,9 +25175,14 @@
       <c r="AO116" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP116" s="10"/>
-    </row>
-    <row r="117" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP116" s="20" t="s">
+        <v>2710</v>
+      </c>
+      <c r="AQ116" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:43" ht="15.75" customHeight="1">
       <c r="A117" s="15">
         <v>135</v>
       </c>
@@ -24178,9 +25300,14 @@
       <c r="AO117" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP117" s="10"/>
-    </row>
-    <row r="118" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP117" s="20" t="s">
+        <v>2711</v>
+      </c>
+      <c r="AQ117" s="22" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="118" spans="1:43" ht="15.75" customHeight="1">
       <c r="A118" s="15">
         <v>136</v>
       </c>
@@ -24298,9 +25425,14 @@
       <c r="AO118" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP118" s="10"/>
-    </row>
-    <row r="119" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP118" s="20" t="s">
+        <v>2712</v>
+      </c>
+      <c r="AQ118" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:43" ht="15.75" customHeight="1">
       <c r="A119" s="15">
         <v>137</v>
       </c>
@@ -24424,9 +25556,14 @@
       <c r="AO119" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP119" s="10"/>
-    </row>
-    <row r="120" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP119" s="20" t="s">
+        <v>2668</v>
+      </c>
+      <c r="AQ119" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:43" ht="15.75" customHeight="1">
       <c r="A120" s="15">
         <v>138</v>
       </c>
@@ -24550,9 +25687,14 @@
       <c r="AO120" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP120" s="10"/>
-    </row>
-    <row r="121" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP120" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ120" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:43" ht="15.75" customHeight="1">
       <c r="A121" s="15">
         <v>139</v>
       </c>
@@ -24676,9 +25818,14 @@
       <c r="AO121" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP121" s="10"/>
-    </row>
-    <row r="122" spans="1:42" ht="15">
+      <c r="AP121" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ121" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:43" ht="15">
       <c r="A122" s="15">
         <v>141</v>
       </c>
@@ -24796,9 +25943,14 @@
       <c r="AO122" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP122" s="10"/>
-    </row>
-    <row r="123" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP122" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ122" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:43" ht="15.75" customHeight="1">
       <c r="A123" s="15">
         <v>143</v>
       </c>
@@ -24922,9 +26074,14 @@
       <c r="AO123" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP123" s="10"/>
-    </row>
-    <row r="124" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP123" s="20" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AQ123" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:43" ht="15.75" customHeight="1">
       <c r="A124" s="15">
         <v>145</v>
       </c>
@@ -25048,9 +26205,14 @@
       <c r="AO124" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP124" s="10"/>
-    </row>
-    <row r="125" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP124" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ124" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:43" ht="15.75" customHeight="1">
       <c r="A125" s="15">
         <v>146</v>
       </c>
@@ -25174,9 +26336,14 @@
       <c r="AO125" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP125" s="10"/>
-    </row>
-    <row r="126" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP125" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ125" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:43" ht="15.75" customHeight="1">
       <c r="A126" s="15">
         <v>147</v>
       </c>
@@ -25300,9 +26467,14 @@
       <c r="AO126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP126" s="10"/>
-    </row>
-    <row r="127" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP126" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ126" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:43" ht="15.75" customHeight="1">
       <c r="A127" s="15">
         <v>148</v>
       </c>
@@ -25426,9 +26598,14 @@
       <c r="AO127" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP127" s="10"/>
-    </row>
-    <row r="128" spans="1:42" ht="15">
+      <c r="AP127" s="20" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AQ127" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:43" ht="15">
       <c r="A128" s="15">
         <v>149</v>
       </c>
@@ -25552,9 +26729,14 @@
       <c r="AO128" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP128" s="10"/>
-    </row>
-    <row r="129" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP128" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ128" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:43" ht="15.75" customHeight="1">
       <c r="A129" s="15">
         <v>150</v>
       </c>
@@ -25678,9 +26860,14 @@
       <c r="AO129" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP129" s="10"/>
-    </row>
-    <row r="130" spans="1:42" ht="15">
+      <c r="AP129" s="20" t="s">
+        <v>2714</v>
+      </c>
+      <c r="AQ129" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:43" ht="15">
       <c r="A130" s="15">
         <v>151</v>
       </c>
@@ -25804,9 +26991,14 @@
       <c r="AO130" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP130" s="10"/>
-    </row>
-    <row r="131" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP130" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ130" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:43" ht="15.75" customHeight="1">
       <c r="A131" s="15">
         <v>152</v>
       </c>
@@ -25924,9 +27116,14 @@
       <c r="AO131" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP131" s="10"/>
-    </row>
-    <row r="132" spans="1:42" ht="15">
+      <c r="AP131" s="20" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AQ131" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:43" ht="15">
       <c r="A132" s="15">
         <v>153</v>
       </c>
@@ -26044,9 +27241,14 @@
       <c r="AO132" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP132" s="10"/>
-    </row>
-    <row r="133" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP132" s="20" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AQ132" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:43" ht="15.75" customHeight="1">
       <c r="A133" s="15">
         <v>154</v>
       </c>
@@ -26164,9 +27366,14 @@
       <c r="AO133" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP133" s="10"/>
-    </row>
-    <row r="134" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP133" s="20" t="s">
+        <v>2717</v>
+      </c>
+      <c r="AQ133" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:43" ht="15.75" customHeight="1">
       <c r="A134" s="15">
         <v>155</v>
       </c>
@@ -26290,9 +27497,14 @@
       <c r="AO134" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP134" s="10"/>
-    </row>
-    <row r="135" spans="1:42" ht="15">
+      <c r="AP134" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ134" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:43" ht="15">
       <c r="A135" s="15">
         <v>156</v>
       </c>
@@ -26416,9 +27628,14 @@
       <c r="AO135" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP135" s="10"/>
-    </row>
-    <row r="136" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP135" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ135" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:43" ht="15.75" customHeight="1">
       <c r="A136" s="15">
         <v>157</v>
       </c>
@@ -26542,9 +27759,14 @@
       <c r="AO136" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP136" s="10"/>
-    </row>
-    <row r="137" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP136" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ136" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:43" ht="15.75" customHeight="1">
       <c r="A137" s="15">
         <v>158</v>
       </c>
@@ -26662,9 +27884,14 @@
       <c r="AO137" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP137" s="10"/>
-    </row>
-    <row r="138" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP137" s="20" t="s">
+        <v>2718</v>
+      </c>
+      <c r="AQ137" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:43" ht="15.75" customHeight="1">
       <c r="A138" s="15">
         <v>159</v>
       </c>
@@ -26788,9 +28015,14 @@
       <c r="AO138" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP138" s="10"/>
-    </row>
-    <row r="139" spans="1:42" ht="15">
+      <c r="AP138" s="20" t="s">
+        <v>2719</v>
+      </c>
+      <c r="AQ138" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:43" ht="15">
       <c r="A139" s="15">
         <v>160</v>
       </c>
@@ -26914,9 +28146,14 @@
       <c r="AO139" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP139" s="10"/>
-    </row>
-    <row r="140" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP139" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ139" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:43" ht="15.75" customHeight="1">
       <c r="A140" s="15">
         <v>161</v>
       </c>
@@ -27040,9 +28277,14 @@
       <c r="AO140" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP140" s="10"/>
-    </row>
-    <row r="141" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP140" s="20" t="s">
+        <v>2720</v>
+      </c>
+      <c r="AQ140" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:43" ht="15.75" customHeight="1">
       <c r="A141" s="15">
         <v>162</v>
       </c>
@@ -27166,9 +28408,14 @@
       <c r="AO141" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP141" s="10"/>
-    </row>
-    <row r="142" spans="1:42" ht="15">
+      <c r="AP141" s="20" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AQ141" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:43" ht="15">
       <c r="A142" s="15">
         <v>163</v>
       </c>
@@ -27292,9 +28539,14 @@
       <c r="AO142" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP142" s="10"/>
-    </row>
-    <row r="143" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP142" s="20" t="s">
+        <v>2721</v>
+      </c>
+      <c r="AQ142" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:43" ht="15.75" customHeight="1">
       <c r="A143" s="15">
         <v>164</v>
       </c>
@@ -27412,9 +28664,14 @@
       <c r="AO143" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP143" s="10"/>
-    </row>
-    <row r="144" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP143" s="20" t="s">
+        <v>2722</v>
+      </c>
+      <c r="AQ143" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:43" ht="15.75" customHeight="1">
       <c r="A144" s="15">
         <v>165</v>
       </c>
@@ -27538,9 +28795,14 @@
       <c r="AO144" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP144" s="10"/>
-    </row>
-    <row r="145" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP144" s="20" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AQ144" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:43" ht="15.75" customHeight="1">
       <c r="A145" s="15">
         <v>166</v>
       </c>
@@ -27658,9 +28920,14 @@
       <c r="AO145" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP145" s="10"/>
-    </row>
-    <row r="146" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP145" s="20" t="s">
+        <v>2724</v>
+      </c>
+      <c r="AQ145" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:43" ht="15.75" customHeight="1">
       <c r="A146" s="15">
         <v>167</v>
       </c>
@@ -27784,9 +29051,14 @@
       <c r="AO146" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP146" s="10"/>
-    </row>
-    <row r="147" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP146" s="20" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AQ146" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:43" ht="15.75" customHeight="1">
       <c r="A147" s="15">
         <v>168</v>
       </c>
@@ -27904,9 +29176,14 @@
       <c r="AO147" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP147" s="10"/>
-    </row>
-    <row r="148" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP147" s="20" t="s">
+        <v>2687</v>
+      </c>
+      <c r="AQ147" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:43" ht="15.75" customHeight="1">
       <c r="A148" s="15">
         <v>169</v>
       </c>
@@ -28024,9 +29301,14 @@
       <c r="AO148" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP148" s="10"/>
-    </row>
-    <row r="149" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP148" s="20" t="s">
+        <v>2726</v>
+      </c>
+      <c r="AQ148" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:43" ht="15.75" customHeight="1">
       <c r="A149" s="15">
         <v>170</v>
       </c>
@@ -28144,9 +29426,14 @@
       <c r="AO149" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP149" s="10"/>
-    </row>
-    <row r="150" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP149" s="20" t="s">
+        <v>2727</v>
+      </c>
+      <c r="AQ149" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="150" spans="1:43" ht="15.75" customHeight="1">
       <c r="A150" s="15">
         <v>171</v>
       </c>
@@ -28264,9 +29551,14 @@
       <c r="AO150" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP150" s="10"/>
-    </row>
-    <row r="151" spans="1:42" ht="15">
+      <c r="AP150" s="20" t="s">
+        <v>2728</v>
+      </c>
+      <c r="AQ150" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:43" ht="15">
       <c r="A151" s="15">
         <v>172</v>
       </c>
@@ -28390,9 +29682,14 @@
       <c r="AO151" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP151" s="10"/>
-    </row>
-    <row r="152" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP151" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ151" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:43" ht="15.75" customHeight="1">
       <c r="A152" s="15">
         <v>173</v>
       </c>
@@ -28510,9 +29807,14 @@
       <c r="AO152" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP152" s="10"/>
-    </row>
-    <row r="153" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP152" s="20" t="s">
+        <v>2729</v>
+      </c>
+      <c r="AQ152" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:43" ht="15.75" customHeight="1">
       <c r="A153" s="15">
         <v>175</v>
       </c>
@@ -28630,9 +29932,14 @@
       <c r="AO153" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP153" s="10"/>
-    </row>
-    <row r="154" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP153" s="20" t="s">
+        <v>2730</v>
+      </c>
+      <c r="AQ153" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:43" ht="15.75" customHeight="1">
       <c r="A154" s="15">
         <v>176</v>
       </c>
@@ -28756,9 +30063,14 @@
       <c r="AO154" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP154" s="10"/>
-    </row>
-    <row r="155" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP154" s="20" t="s">
+        <v>2688</v>
+      </c>
+      <c r="AQ154" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:43" ht="15.75" customHeight="1">
       <c r="A155" s="15">
         <v>177</v>
       </c>
@@ -28876,9 +30188,14 @@
       <c r="AO155" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP155" s="10"/>
-    </row>
-    <row r="156" spans="1:42" ht="15">
+      <c r="AP155" s="20" t="s">
+        <v>2731</v>
+      </c>
+      <c r="AQ155" s="22" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="156" spans="1:43" ht="15">
       <c r="A156" s="15">
         <v>178</v>
       </c>
@@ -28996,9 +30313,14 @@
       <c r="AO156" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP156" s="10"/>
-    </row>
-    <row r="157" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP156" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ156" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:43" ht="15.75" customHeight="1">
       <c r="A157" s="15">
         <v>179</v>
       </c>
@@ -29122,9 +30444,14 @@
       <c r="AO157" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP157" s="10"/>
-    </row>
-    <row r="158" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP157" s="20" t="s">
+        <v>2732</v>
+      </c>
+      <c r="AQ157" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:43" ht="15.75" customHeight="1">
       <c r="A158" s="15">
         <v>180</v>
       </c>
@@ -29242,9 +30569,14 @@
       <c r="AO158" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP158" s="10"/>
-    </row>
-    <row r="159" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP158" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ158" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:43" ht="15.75" customHeight="1">
       <c r="A159" s="15">
         <v>181</v>
       </c>
@@ -29362,9 +30694,14 @@
       <c r="AO159" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP159" s="10"/>
-    </row>
-    <row r="160" spans="1:42" ht="15">
+      <c r="AP159" s="20" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AQ159" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:43" ht="15">
       <c r="A160" s="15">
         <v>182</v>
       </c>
@@ -29482,9 +30819,14 @@
       <c r="AO160" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP160" s="10"/>
-    </row>
-    <row r="161" spans="1:42" ht="15">
+      <c r="AP160" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ160" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:43" ht="15">
       <c r="A161" s="15">
         <v>183</v>
       </c>
@@ -29608,9 +30950,14 @@
       <c r="AO161" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP161" s="10"/>
-    </row>
-    <row r="162" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP161" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ161" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:43" ht="15.75" customHeight="1">
       <c r="A162" s="15">
         <v>184</v>
       </c>
@@ -29734,9 +31081,14 @@
       <c r="AO162" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP162" s="10"/>
-    </row>
-    <row r="163" spans="1:42" ht="15">
+      <c r="AP162" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ162" s="22" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="163" spans="1:43" ht="15">
       <c r="A163" s="15">
         <v>185</v>
       </c>
@@ -29860,9 +31212,14 @@
       <c r="AO163" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP163" s="10"/>
-    </row>
-    <row r="164" spans="1:42" ht="15">
+      <c r="AP163" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ163" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:43" ht="15">
       <c r="A164" s="15">
         <v>186</v>
       </c>
@@ -29986,9 +31343,14 @@
       <c r="AO164" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP164" s="10"/>
-    </row>
-    <row r="165" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP164" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ164" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:43" ht="15.75" customHeight="1">
       <c r="A165" s="15">
         <v>187</v>
       </c>
@@ -30106,9 +31468,14 @@
       <c r="AO165" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP165" s="10"/>
-    </row>
-    <row r="166" spans="1:42" ht="15">
+      <c r="AP165" s="20" t="s">
+        <v>2734</v>
+      </c>
+      <c r="AQ165" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:43" ht="15">
       <c r="A166" s="15">
         <v>188</v>
       </c>
@@ -30226,9 +31593,14 @@
       <c r="AO166" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP166" s="10"/>
-    </row>
-    <row r="167" spans="1:42" ht="15">
+      <c r="AP166" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ166" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="1:43" ht="15">
       <c r="A167" s="15">
         <v>189</v>
       </c>
@@ -30352,9 +31724,14 @@
       <c r="AO167" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP167" s="10"/>
-    </row>
-    <row r="168" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP167" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ167" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:43" ht="15.75" customHeight="1">
       <c r="A168" s="15">
         <v>191</v>
       </c>
@@ -30472,9 +31849,14 @@
       <c r="AO168" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP168" s="10"/>
-    </row>
-    <row r="169" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP168" s="20" t="s">
+        <v>2735</v>
+      </c>
+      <c r="AQ168" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:43" ht="15.75" customHeight="1">
       <c r="A169" s="15">
         <v>192</v>
       </c>
@@ -30592,9 +31974,14 @@
       <c r="AO169" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP169" s="10"/>
-    </row>
-    <row r="170" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP169" s="20" t="s">
+        <v>2736</v>
+      </c>
+      <c r="AQ169" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:43" ht="15.75" customHeight="1">
       <c r="A170" s="15">
         <v>193</v>
       </c>
@@ -30718,9 +32105,14 @@
       <c r="AO170" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP170" s="10"/>
-    </row>
-    <row r="171" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP170" s="20" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AQ170" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:43" ht="15.75" customHeight="1">
       <c r="A171" s="15">
         <v>196</v>
       </c>
@@ -30838,9 +32230,14 @@
       <c r="AO171" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP171" s="10"/>
-    </row>
-    <row r="172" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP171" s="20" t="s">
+        <v>2737</v>
+      </c>
+      <c r="AQ171" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:43" ht="15.75" customHeight="1">
       <c r="A172" s="15">
         <v>197</v>
       </c>
@@ -30958,9 +32355,14 @@
       <c r="AO172" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP172" s="10"/>
-    </row>
-    <row r="173" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP172" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ172" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:43" ht="15.75" customHeight="1">
       <c r="A173" s="15">
         <v>198</v>
       </c>
@@ -31078,9 +32480,14 @@
       <c r="AO173" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP173" s="10"/>
-    </row>
-    <row r="174" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP173" s="20" t="s">
+        <v>2738</v>
+      </c>
+      <c r="AQ173" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:43" ht="15.75" customHeight="1">
       <c r="A174" s="15">
         <v>199</v>
       </c>
@@ -31198,9 +32605,14 @@
       <c r="AO174" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP174" s="10"/>
-    </row>
-    <row r="175" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP174" s="20" t="s">
+        <v>2739</v>
+      </c>
+      <c r="AQ174" s="20" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="175" spans="1:43" ht="15.75" customHeight="1">
       <c r="A175" s="15">
         <v>200</v>
       </c>
@@ -31318,9 +32730,14 @@
       <c r="AO175" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP175" s="10"/>
-    </row>
-    <row r="176" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP175" s="20" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AQ175" s="20" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="176" spans="1:43" ht="15.75" customHeight="1">
       <c r="A176" s="15">
         <v>202</v>
       </c>
@@ -31438,9 +32855,14 @@
       <c r="AO176" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP176" s="10"/>
-    </row>
-    <row r="177" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP176" s="20" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AQ176" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:43" ht="15.75" customHeight="1">
       <c r="A177" s="15">
         <v>203</v>
       </c>
@@ -31558,9 +32980,14 @@
       <c r="AO177" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP177" s="10"/>
-    </row>
-    <row r="178" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP177" s="20" t="s">
+        <v>2741</v>
+      </c>
+      <c r="AQ177" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:43" ht="15.75" customHeight="1">
       <c r="A178" s="15">
         <v>204</v>
       </c>
@@ -31678,9 +33105,14 @@
       <c r="AO178" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP178" s="10"/>
-    </row>
-    <row r="179" spans="1:42" ht="15">
+      <c r="AP178" s="20" t="s">
+        <v>2742</v>
+      </c>
+      <c r="AQ178" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="179" spans="1:43" ht="15">
       <c r="A179" s="15">
         <v>205</v>
       </c>
@@ -31798,9 +33230,14 @@
       <c r="AO179" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP179" s="10"/>
-    </row>
-    <row r="180" spans="1:42" ht="15">
+      <c r="AP179" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ179" s="20" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="180" spans="1:43" ht="15">
       <c r="A180" s="15">
         <v>206</v>
       </c>
@@ -31924,9 +33361,14 @@
       <c r="AO180" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP180" s="10"/>
-    </row>
-    <row r="181" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP180" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ180" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="181" spans="1:43" ht="15.75" customHeight="1">
       <c r="A181" s="15">
         <v>207</v>
       </c>
@@ -32044,9 +33486,14 @@
       <c r="AO181" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP181" s="10"/>
-    </row>
-    <row r="182" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP181" s="20" t="s">
+        <v>2743</v>
+      </c>
+      <c r="AQ181" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:43" ht="15.75" customHeight="1">
       <c r="A182" s="15">
         <v>208</v>
       </c>
@@ -32170,9 +33617,14 @@
       <c r="AO182" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP182" s="10"/>
-    </row>
-    <row r="183" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP182" s="20" t="s">
+        <v>2701</v>
+      </c>
+      <c r="AQ182" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:43" ht="15.75" customHeight="1">
       <c r="A183" s="15">
         <v>209</v>
       </c>
@@ -32290,9 +33742,14 @@
       <c r="AO183" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP183" s="10"/>
-    </row>
-    <row r="184" spans="1:42" ht="15">
+      <c r="AP183" s="20" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AQ183" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:43" ht="15">
       <c r="A184" s="15">
         <v>210</v>
       </c>
@@ -32410,9 +33867,14 @@
       <c r="AO184" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP184" s="10"/>
-    </row>
-    <row r="185" spans="1:42" ht="15">
+      <c r="AP184" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ184" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:43" ht="15">
       <c r="A185" s="15">
         <v>211</v>
       </c>
@@ -32530,9 +33992,14 @@
       <c r="AO185" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP185" s="10"/>
-    </row>
-    <row r="186" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP185" s="20" t="s">
+        <v>2745</v>
+      </c>
+      <c r="AQ185" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:43" ht="15.75" customHeight="1">
       <c r="A186" s="15">
         <v>212</v>
       </c>
@@ -32650,9 +34117,14 @@
       <c r="AO186" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP186" s="10"/>
-    </row>
-    <row r="187" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP186" s="20" t="s">
+        <v>2746</v>
+      </c>
+      <c r="AQ186" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:43" ht="15.75" customHeight="1">
       <c r="A187" s="15">
         <v>213</v>
       </c>
@@ -32776,9 +34248,14 @@
       <c r="AO187" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP187" s="10"/>
-    </row>
-    <row r="188" spans="1:42" ht="15">
+      <c r="AP187" s="20" t="s">
+        <v>2747</v>
+      </c>
+      <c r="AQ187" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:43" ht="15">
       <c r="A188" s="15">
         <v>214</v>
       </c>
@@ -32896,9 +34373,14 @@
       <c r="AO188" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP188" s="10"/>
-    </row>
-    <row r="189" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP188" s="20" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AQ188" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:43" ht="15.75" customHeight="1">
       <c r="A189" s="15">
         <v>216</v>
       </c>
@@ -33016,9 +34498,14 @@
       <c r="AO189" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP189" s="10"/>
-    </row>
-    <row r="190" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP189" s="20" t="s">
+        <v>2749</v>
+      </c>
+      <c r="AQ189" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:43" ht="15.75" customHeight="1">
       <c r="A190" s="15">
         <v>217</v>
       </c>
@@ -33136,9 +34623,14 @@
       <c r="AO190" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP190" s="10"/>
-    </row>
-    <row r="191" spans="1:42" ht="15">
+      <c r="AP190" s="20" t="s">
+        <v>2750</v>
+      </c>
+      <c r="AQ190" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:43" ht="15">
       <c r="A191" s="15">
         <v>218</v>
       </c>
@@ -33262,9 +34754,14 @@
       <c r="AO191" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP191" s="10"/>
-    </row>
-    <row r="192" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP191" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ191" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:43" ht="15.75" customHeight="1">
       <c r="A192" s="15">
         <v>219</v>
       </c>
@@ -33382,9 +34879,14 @@
       <c r="AO192" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP192" s="10"/>
-    </row>
-    <row r="193" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP192" s="20" t="s">
+        <v>2751</v>
+      </c>
+      <c r="AQ192" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="193" spans="1:43" ht="15.75" customHeight="1">
       <c r="A193" s="15">
         <v>220</v>
       </c>
@@ -33502,9 +35004,14 @@
       <c r="AO193" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP193" s="10"/>
-    </row>
-    <row r="194" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP193" s="20" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AQ193" s="20" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="194" spans="1:43" ht="15.75" customHeight="1">
       <c r="A194" s="15">
         <v>221</v>
       </c>
@@ -33622,9 +35129,14 @@
       <c r="AO194" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP194" s="10"/>
-    </row>
-    <row r="195" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP194" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ194" s="20" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="195" spans="1:43" ht="15.75" customHeight="1">
       <c r="A195" s="15">
         <v>222</v>
       </c>
@@ -33742,9 +35254,14 @@
       <c r="AO195" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP195" s="10"/>
-    </row>
-    <row r="196" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP195" s="20" t="s">
+        <v>2710</v>
+      </c>
+      <c r="AQ195" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:43" ht="15.75" customHeight="1">
       <c r="A196" s="15">
         <v>223</v>
       </c>
@@ -33862,9 +35379,14 @@
       <c r="AO196" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP196" s="10"/>
-    </row>
-    <row r="197" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP196" s="20" t="s">
+        <v>2752</v>
+      </c>
+      <c r="AQ196" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:43" ht="15.75" customHeight="1">
       <c r="A197" s="15">
         <v>224</v>
       </c>
@@ -33982,9 +35504,14 @@
       <c r="AO197" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP197" s="10"/>
-    </row>
-    <row r="198" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP197" s="20" t="s">
+        <v>2753</v>
+      </c>
+      <c r="AQ197" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:43" ht="15.75" customHeight="1">
       <c r="A198" s="15">
         <v>226</v>
       </c>
@@ -34102,8 +35629,14 @@
       <c r="AO198" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP198" s="20" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AQ198" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="199" spans="1:43" ht="15.75" customHeight="1">
       <c r="A199" s="15">
         <v>227</v>
       </c>
@@ -34221,9 +35754,14 @@
       <c r="AO199" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP199" s="10"/>
-    </row>
-    <row r="200" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP199" s="20" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AQ199" s="20" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="200" spans="1:43" ht="15.75" customHeight="1">
       <c r="A200" s="15">
         <v>228</v>
       </c>
@@ -34347,9 +35885,14 @@
       <c r="AO200" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP200" s="10"/>
-    </row>
-    <row r="201" spans="1:42" ht="15">
+      <c r="AP200" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ200" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:43" ht="15">
       <c r="A201" s="15">
         <v>229</v>
       </c>
@@ -34467,9 +36010,14 @@
       <c r="AO201" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP201" s="10"/>
-    </row>
-    <row r="202" spans="1:42" ht="15">
+      <c r="AP201" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ201" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="202" spans="1:43" ht="15">
       <c r="A202" s="15">
         <v>230</v>
       </c>
@@ -34593,9 +36141,14 @@
       <c r="AO202" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP202" s="10"/>
-    </row>
-    <row r="203" spans="1:42" ht="15">
+      <c r="AP202" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ202" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="203" spans="1:43" ht="15">
       <c r="A203" s="15">
         <v>231</v>
       </c>
@@ -34713,9 +36266,14 @@
       <c r="AO203" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP203" s="10"/>
-    </row>
-    <row r="204" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP203" s="20" t="s">
+        <v>2755</v>
+      </c>
+      <c r="AQ203" s="20" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="204" spans="1:43" ht="15.75" customHeight="1">
       <c r="A204" s="15">
         <v>233</v>
       </c>
@@ -34839,9 +36397,14 @@
       <c r="AO204" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP204" s="10"/>
-    </row>
-    <row r="205" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP204" s="20" t="s">
+        <v>2651</v>
+      </c>
+      <c r="AQ204" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="205" spans="1:43" ht="15.75" customHeight="1">
       <c r="A205" s="15">
         <v>234</v>
       </c>
@@ -34959,9 +36522,14 @@
       <c r="AO205" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP205" s="10"/>
-    </row>
-    <row r="206" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP205" s="20" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AQ205" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="206" spans="1:43" ht="15.75" customHeight="1">
       <c r="A206" s="15">
         <v>235</v>
       </c>
@@ -35079,9 +36647,14 @@
       <c r="AO206" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP206" s="10"/>
-    </row>
-    <row r="207" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP206" s="20" t="s">
+        <v>2757</v>
+      </c>
+      <c r="AQ206" s="20" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="207" spans="1:43" ht="15.75" customHeight="1">
       <c r="A207" s="15">
         <v>236</v>
       </c>
@@ -35199,9 +36772,14 @@
       <c r="AO207" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP207" s="10"/>
-    </row>
-    <row r="208" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP207" s="20" t="s">
+        <v>2757</v>
+      </c>
+      <c r="AQ207" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:43" ht="15.75" customHeight="1">
       <c r="A208" s="10">
         <v>237</v>
       </c>
@@ -35319,9 +36897,14 @@
       <c r="AO208" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP208" s="10"/>
-    </row>
-    <row r="209" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP208" s="20" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AQ208" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:43" ht="15.75" customHeight="1">
       <c r="A209" s="10">
         <v>238</v>
       </c>
@@ -35439,9 +37022,14 @@
       <c r="AO209" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP209" s="10"/>
-    </row>
-    <row r="210" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP209" s="20" t="s">
+        <v>2758</v>
+      </c>
+      <c r="AQ209" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:43" ht="15.75" customHeight="1">
       <c r="A210" s="15">
         <v>239</v>
       </c>
@@ -35559,9 +37147,14 @@
       <c r="AO210" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP210" s="10"/>
-    </row>
-    <row r="211" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP210" s="20" t="s">
+        <v>2759</v>
+      </c>
+      <c r="AQ210" s="20" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="211" spans="1:43" ht="15.75" customHeight="1">
       <c r="A211" s="15">
         <v>240</v>
       </c>
@@ -35679,9 +37272,14 @@
       <c r="AO211" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP211" s="10"/>
-    </row>
-    <row r="212" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP211" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ211" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212" spans="1:43" ht="15.75" customHeight="1">
       <c r="A212" s="15">
         <v>241</v>
       </c>
@@ -35799,9 +37397,14 @@
       <c r="AO212" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP212" s="10"/>
-    </row>
-    <row r="213" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP212" s="20" t="s">
+        <v>2674</v>
+      </c>
+      <c r="AQ212" s="20" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="213" spans="1:43" ht="15.75" customHeight="1">
       <c r="A213" s="15">
         <v>242</v>
       </c>
@@ -35919,9 +37522,14 @@
       <c r="AO213" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP213" s="10"/>
-    </row>
-    <row r="214" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP213" s="20" t="s">
+        <v>2687</v>
+      </c>
+      <c r="AQ213" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="214" spans="1:43" ht="15.75" customHeight="1">
       <c r="A214" s="15">
         <v>243</v>
       </c>
@@ -36039,9 +37647,14 @@
       <c r="AO214" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP214" s="10"/>
-    </row>
-    <row r="215" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP214" s="20" t="s">
+        <v>2760</v>
+      </c>
+      <c r="AQ214" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="215" spans="1:43" ht="15.75" customHeight="1">
       <c r="A215" s="15">
         <v>244</v>
       </c>
@@ -36159,9 +37772,14 @@
       <c r="AO215" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP215" s="10"/>
-    </row>
-    <row r="216" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP215" s="20" t="s">
+        <v>2761</v>
+      </c>
+      <c r="AQ215" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:43" ht="15.75" customHeight="1">
       <c r="A216" s="15">
         <v>245</v>
       </c>
@@ -36279,9 +37897,14 @@
       <c r="AO216" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP216" s="10"/>
-    </row>
-    <row r="217" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP216" s="20" t="s">
+        <v>2762</v>
+      </c>
+      <c r="AQ216" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:43" ht="15.75" customHeight="1">
       <c r="A217" s="15">
         <v>246</v>
       </c>
@@ -36399,9 +38022,14 @@
       <c r="AO217" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP217" s="10"/>
-    </row>
-    <row r="218" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP217" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ217" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:43" ht="15.75" customHeight="1">
       <c r="A218" s="15">
         <v>247</v>
       </c>
@@ -36519,9 +38147,14 @@
       <c r="AO218" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP218" s="10"/>
-    </row>
-    <row r="219" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP218" s="20" t="s">
+        <v>2763</v>
+      </c>
+      <c r="AQ218" s="20" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="219" spans="1:43" ht="15.75" customHeight="1">
       <c r="A219" s="15">
         <v>248</v>
       </c>
@@ -36639,9 +38272,14 @@
       <c r="AO219" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP219" s="10"/>
-    </row>
-    <row r="220" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP219" s="20" t="s">
+        <v>2746</v>
+      </c>
+      <c r="AQ219" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:43" ht="15.75" customHeight="1">
       <c r="A220" s="15">
         <v>249</v>
       </c>
@@ -36759,9 +38397,14 @@
       <c r="AO220" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP220" s="10"/>
-    </row>
-    <row r="221" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP220" s="20" t="s">
+        <v>2741</v>
+      </c>
+      <c r="AQ220" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221" spans="1:43" ht="15.75" customHeight="1">
       <c r="A221" s="15">
         <v>250</v>
       </c>
@@ -36879,9 +38522,14 @@
       <c r="AO221" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP221" s="10"/>
-    </row>
-    <row r="222" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP221" s="20" t="s">
+        <v>2720</v>
+      </c>
+      <c r="AQ221" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:43" ht="15.75" customHeight="1">
       <c r="A222" s="15">
         <v>251</v>
       </c>
@@ -37005,9 +38653,14 @@
       <c r="AO222" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP222" s="10"/>
-    </row>
-    <row r="223" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP222" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ222" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:43" ht="15.75" customHeight="1">
       <c r="A223" s="15">
         <v>252</v>
       </c>
@@ -37125,9 +38778,14 @@
       <c r="AO223" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP223" s="10"/>
-    </row>
-    <row r="224" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP223" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ223" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:43" ht="15.75" customHeight="1">
       <c r="A224" s="15">
         <v>253</v>
       </c>
@@ -37245,9 +38903,14 @@
       <c r="AO224" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP224" s="10"/>
-    </row>
-    <row r="225" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP224" s="20" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AQ224" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:43" ht="15.75" customHeight="1">
       <c r="A225" s="15">
         <v>254</v>
       </c>
@@ -37365,9 +39028,14 @@
       <c r="AO225" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP225" s="10"/>
-    </row>
-    <row r="226" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP225" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ225" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:43" ht="15.75" customHeight="1">
       <c r="A226" s="15">
         <v>255</v>
       </c>
@@ -37485,9 +39153,14 @@
       <c r="AO226" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP226" s="10"/>
-    </row>
-    <row r="227" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP226" s="20" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AQ226" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:43" ht="15.75" customHeight="1">
       <c r="A227" s="15">
         <v>256</v>
       </c>
@@ -37605,9 +39278,14 @@
       <c r="AO227" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP227" s="10"/>
-    </row>
-    <row r="228" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP227" s="20" t="s">
+        <v>2661</v>
+      </c>
+      <c r="AQ227" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:43" ht="15.75" customHeight="1">
       <c r="A228" s="15">
         <v>258</v>
       </c>
@@ -37725,9 +39403,14 @@
       <c r="AO228" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP228" s="10"/>
-    </row>
-    <row r="229" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP228" s="20" t="s">
+        <v>2672</v>
+      </c>
+      <c r="AQ228" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:43" ht="15.75" customHeight="1">
       <c r="A229" s="15">
         <v>259</v>
       </c>
@@ -37845,9 +39528,14 @@
       <c r="AO229" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="AP229" s="10"/>
-    </row>
-    <row r="230" spans="1:42" ht="15">
+      <c r="AP229" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ229" s="20" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="230" spans="1:43" ht="15">
       <c r="A230" s="15">
         <v>260</v>
       </c>
@@ -37971,9 +39659,14 @@
       <c r="AO230" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP230" s="10"/>
-    </row>
-    <row r="231" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP230" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ230" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:43" ht="15.75" customHeight="1">
       <c r="A231" s="15">
         <v>261</v>
       </c>
@@ -38097,9 +39790,14 @@
       <c r="AO231" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP231" s="10"/>
-    </row>
-    <row r="232" spans="1:42" ht="15">
+      <c r="AP231" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ231" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="1:43" ht="15">
       <c r="A232" s="15">
         <v>263</v>
       </c>
@@ -38223,9 +39921,14 @@
       <c r="AO232" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP232" s="10"/>
-    </row>
-    <row r="233" spans="1:42" ht="15">
+      <c r="AP232" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ232" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:43" ht="15">
       <c r="A233" s="15">
         <v>265</v>
       </c>
@@ -38343,9 +40046,14 @@
       <c r="AO233" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP233" s="10"/>
-    </row>
-    <row r="234" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP233" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ233" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:43" ht="15.75" customHeight="1">
       <c r="A234" s="15">
         <v>266</v>
       </c>
@@ -38469,9 +40177,14 @@
       <c r="AO234" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP234" s="10"/>
-    </row>
-    <row r="235" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP234" s="20" t="s">
+        <v>2765</v>
+      </c>
+      <c r="AQ234" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:43" ht="15.75" customHeight="1">
       <c r="A235" s="15">
         <v>267</v>
       </c>
@@ -38589,9 +40302,14 @@
       <c r="AO235" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP235" s="10"/>
-    </row>
-    <row r="236" spans="1:42" ht="15">
+      <c r="AP235" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ235" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="236" spans="1:43" ht="15">
       <c r="A236" s="15">
         <v>268</v>
       </c>
@@ -38709,9 +40427,14 @@
       <c r="AO236" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP236" s="10"/>
-    </row>
-    <row r="237" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP236" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ236" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="237" spans="1:43" ht="15.75" customHeight="1">
       <c r="A237" s="15">
         <v>269</v>
       </c>
@@ -38829,9 +40552,14 @@
       <c r="AO237" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP237" s="10"/>
-    </row>
-    <row r="238" spans="1:42" ht="15">
+      <c r="AP237" s="20" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AQ237" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:43" ht="15">
       <c r="A238" s="15">
         <v>270</v>
       </c>
@@ -38949,9 +40677,14 @@
       <c r="AO238" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP238" s="10"/>
-    </row>
-    <row r="239" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP238" s="20" t="s">
+        <v>2767</v>
+      </c>
+      <c r="AQ238" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:43" ht="15.75" customHeight="1">
       <c r="A239" s="15">
         <v>271</v>
       </c>
@@ -39069,9 +40802,14 @@
       <c r="AO239" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP239" s="10"/>
-    </row>
-    <row r="240" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP239" s="20" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AQ239" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="240" spans="1:43" ht="15.75" customHeight="1">
       <c r="A240" s="15">
         <v>272</v>
       </c>
@@ -39189,9 +40927,14 @@
       <c r="AO240" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP240" s="10"/>
-    </row>
-    <row r="241" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP240" s="20" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AQ240" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:43" ht="15.75" customHeight="1">
       <c r="A241" s="15">
         <v>273</v>
       </c>
@@ -39309,9 +41052,14 @@
       <c r="AO241" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP241" s="10"/>
-    </row>
-    <row r="242" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP241" s="20" t="s">
+        <v>2744</v>
+      </c>
+      <c r="AQ241" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="242" spans="1:43" ht="15.75" customHeight="1">
       <c r="A242" s="15">
         <v>274</v>
       </c>
@@ -39429,9 +41177,14 @@
       <c r="AO242" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP242" s="10"/>
-    </row>
-    <row r="243" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP242" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ242" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:43" ht="15.75" customHeight="1">
       <c r="A243" s="15">
         <v>275</v>
       </c>
@@ -39555,9 +41308,14 @@
       <c r="AO243" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP243" s="10"/>
-    </row>
-    <row r="244" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP243" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ243" s="23" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="244" spans="1:43" ht="15.75" customHeight="1">
       <c r="A244" s="15">
         <v>276</v>
       </c>
@@ -39675,9 +41433,14 @@
       <c r="AO244" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP244" s="10"/>
-    </row>
-    <row r="245" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP244" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ244" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="245" spans="1:43" ht="15.75" customHeight="1">
       <c r="A245" s="15">
         <v>277</v>
       </c>
@@ -39795,9 +41558,14 @@
       <c r="AO245" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP245" s="10"/>
-    </row>
-    <row r="246" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP245" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ245" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" spans="1:43" ht="15.75" customHeight="1">
       <c r="A246" s="15">
         <v>278</v>
       </c>
@@ -39921,23 +41689,29 @@
       <c r="AO246" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="AP246" s="10"/>
-    </row>
-    <row r="247" spans="1:42" ht="15.75" customHeight="1">
+      <c r="AP246" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ246" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="247" spans="1:43" ht="15.75" customHeight="1">
       <c r="AP247" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="AL2:AL197 AL199:AL208 AL211:AL246">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="primary">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="primary">
       <formula>NOT(ISERROR(SEARCH("primary",AL2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -39949,6 +41723,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
   <cols>
@@ -55207,6 +56982,7 @@
     <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15"/>
   <cols>
@@ -59288,9 +61064,10 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -59317,7 +61094,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="str" cm="1">
-        <f t="array" ref="A2:A42">TRANSPOSE(DataCleaningViz[#Headers])</f>
+        <f t="array" ref="A2:A44">TRANSPOSE(DataCleaningViz[#Headers])</f>
         <v>Index</v>
       </c>
       <c r="B2" t="s">
@@ -59722,7 +61499,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="105">
+    <row r="31" spans="1:4" ht="60">
       <c r="A31" s="2" t="str">
         <v>TE Controlled for Experimentally or in the Design</v>
       </c>
@@ -59891,7 +61668,32 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="str">
+        <v>Parent Study Name</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="str">
+        <v>Diet Quality Score Assessed?</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2794</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2"/>
@@ -59911,6 +61713,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -59975,6 +61778,7 @@
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -60013,6 +61817,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6fecc678-ac11-4f91-9789-3fa85fc56059" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7d20898b-5885-4c0d-afcc-9281a2cc27ff">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ED96BB2EDC411F44BA0D83502807E63C" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30d25eca8a8371d0570d99a563186d07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7d20898b-5885-4c0d-afcc-9281a2cc27ff" xmlns:ns3="6fecc678-ac11-4f91-9789-3fa85fc56059" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4109489a85a1f08d5a469b1afd5eb069" ns2:_="" ns3:_="">
     <xsd:import namespace="7d20898b-5885-4c0d-afcc-9281a2cc27ff"/>
@@ -60255,26 +62079,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6fecc678-ac11-4f91-9789-3fa85fc56059" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7d20898b-5885-4c0d-afcc-9281a2cc27ff">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEE1DEF7-DBD6-4240-B007-2739C974FB3A}">
   <ds:schemaRefs>
@@ -60284,20 +62088,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7F5821-2349-40F1-B7EB-3FA417E5686B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DA6C65-BAAE-421E-A37A-817C37D7992D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7d20898b-5885-4c0d-afcc-9281a2cc27ff"/>
-    <ds:schemaRef ds:uri="6fecc678-ac11-4f91-9789-3fa85fc56059"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -60320,9 +62113,20 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DA6C65-BAAE-421E-A37A-817C37D7992D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF7F5821-2349-40F1-B7EB-3FA417E5686B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7d20898b-5885-4c0d-afcc-9281a2cc27ff"/>
+    <ds:schemaRef ds:uri="6fecc678-ac11-4f91-9789-3fa85fc56059"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>